--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.410664244856207</v>
+        <v>2.410664244856434</v>
       </c>
       <c r="C2">
-        <v>0.8435838743278623</v>
+        <v>0.8435838743282886</v>
       </c>
       <c r="D2">
-        <v>0.02634910146119296</v>
+        <v>0.02634910146130665</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.339384596135872</v>
+        <v>1.339384596135886</v>
       </c>
       <c r="G2">
         <v>0.9090841679827548</v>
       </c>
       <c r="H2">
-        <v>0.5377030448699642</v>
+        <v>0.5377030448699571</v>
       </c>
       <c r="I2">
         <v>0.1870590600013387</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088336028609319</v>
+        <v>2.088336028609348</v>
       </c>
       <c r="C3">
-        <v>0.7303073934148756</v>
+        <v>0.7303073934147335</v>
       </c>
       <c r="D3">
-        <v>0.02311798892989003</v>
+        <v>0.02311798892987227</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.199170350499244</v>
+        <v>1.199170350499259</v>
       </c>
       <c r="G3">
         <v>0.8186607894343467</v>
       </c>
       <c r="H3">
-        <v>0.5026676920146684</v>
+        <v>0.5026676920146755</v>
       </c>
       <c r="I3">
-        <v>0.1640312049294472</v>
+        <v>0.164031204929433</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.025726454627318</v>
+        <v>1.025726454627311</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.891904610765096</v>
+        <v>1.891904610764868</v>
       </c>
       <c r="C4">
-        <v>0.6614361712494485</v>
+        <v>0.6614361712495622</v>
       </c>
       <c r="D4">
-        <v>0.02113965615707158</v>
+        <v>0.02113965615707869</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.116605126159726</v>
+        <v>1.11660512615974</v>
       </c>
       <c r="G4">
-        <v>0.7657085983575627</v>
+        <v>0.7657085983575485</v>
       </c>
       <c r="H4">
-        <v>0.4829338708939517</v>
+        <v>0.4829338708939446</v>
       </c>
       <c r="I4">
-        <v>0.1504583089656428</v>
+        <v>0.1504583089656641</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9266301516235558</v>
+        <v>0.9266301516235629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812156598949997</v>
+        <v>1.812156598950111</v>
       </c>
       <c r="C5">
-        <v>0.6335098314099525</v>
+        <v>0.6335098314100662</v>
       </c>
       <c r="D5">
-        <v>0.02033432516408951</v>
+        <v>0.02033432516402556</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0.7447135350172616</v>
       </c>
       <c r="H5">
-        <v>0.4753013142488882</v>
+        <v>0.4753013142488953</v>
       </c>
       <c r="I5">
-        <v>0.1450527741957188</v>
+        <v>0.1450527741957153</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8865767383767462</v>
+        <v>0.8865767383767604</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798930576395151</v>
+        <v>1.798930576395321</v>
       </c>
       <c r="C6">
-        <v>0.628880209707944</v>
+        <v>0.6288802097081145</v>
       </c>
       <c r="D6">
-        <v>0.02020063722524057</v>
+        <v>0.02020063722518017</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0.7412608251318886</v>
       </c>
       <c r="H6">
-        <v>0.4740575910792586</v>
+        <v>0.4740575910792444</v>
       </c>
       <c r="I6">
-        <v>0.1441623065456348</v>
+        <v>0.1441623065456454</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.890827980571288</v>
+        <v>1.890827980571231</v>
       </c>
       <c r="C7">
-        <v>0.6610590234019469</v>
+        <v>0.6610590234020606</v>
       </c>
       <c r="D7">
-        <v>0.02112879240333498</v>
+        <v>0.02112879240326393</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.116159017979768</v>
       </c>
       <c r="G7">
-        <v>0.7654231683516457</v>
+        <v>0.7654231683516386</v>
       </c>
       <c r="H7">
-        <v>0.482829327000843</v>
+        <v>0.4828293270008146</v>
       </c>
       <c r="I7">
-        <v>0.150384920954945</v>
+        <v>0.1503849209549664</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9260887172948102</v>
+        <v>0.9260887172948031</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299172674197337</v>
+        <v>2.29917267419728</v>
       </c>
       <c r="C8">
-        <v>0.8043646381700853</v>
+        <v>0.80436463817</v>
       </c>
       <c r="D8">
-        <v>0.02523350707142669</v>
+        <v>0.02523350707143379</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>1.29025169710863</v>
       </c>
       <c r="G8">
-        <v>0.8773339963769189</v>
+        <v>0.8773339963769047</v>
       </c>
       <c r="H8">
-        <v>0.5252300055811574</v>
+        <v>0.5252300055811716</v>
       </c>
       <c r="I8">
-        <v>0.1789908654277923</v>
+        <v>0.1789908654278207</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.132757420106827</v>
+        <v>1.132757420106813</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.115329278091281</v>
+        <v>3.115329278091224</v>
       </c>
       <c r="C9">
-        <v>1.092400721859235</v>
+        <v>1.092400721859292</v>
       </c>
       <c r="D9">
-        <v>0.03335525290057006</v>
+        <v>0.03335525290056296</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.663997227179919</v>
+        <v>1.663997227179934</v>
       </c>
       <c r="G9">
-        <v>1.120275421553458</v>
+        <v>1.120275421553444</v>
       </c>
       <c r="H9">
-        <v>0.6243721887716092</v>
+        <v>0.6243721887716234</v>
       </c>
       <c r="I9">
-        <v>0.240432949366074</v>
+        <v>0.2404329493660669</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.730080333304272</v>
+        <v>3.730080333304102</v>
       </c>
       <c r="C10">
-        <v>1.310829286199976</v>
+        <v>1.310829286200033</v>
       </c>
       <c r="D10">
-        <v>0.03941128578683362</v>
+        <v>0.03941128578672703</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.965112943335868</v>
+        <v>1.965112943335882</v>
       </c>
       <c r="G10">
         <v>1.317922284016404</v>
       </c>
       <c r="H10">
-        <v>0.70989586372513</v>
+        <v>0.7098958637251229</v>
       </c>
       <c r="I10">
-        <v>0.2901849140599282</v>
+        <v>0.2901849140598927</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.875787283034541</v>
+        <v>1.875787283034555</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.014504549515777</v>
+        <v>4.014504549515891</v>
       </c>
       <c r="C11">
-        <v>1.412331431491623</v>
+        <v>1.412331431491737</v>
       </c>
       <c r="D11">
-        <v>0.04219735533122559</v>
+        <v>0.04219735533101243</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.109607375317054</v>
+        <v>2.10960737531704</v>
       </c>
       <c r="G11">
         <v>1.413241777532619</v>
       </c>
       <c r="H11">
-        <v>0.7523103861044902</v>
+        <v>0.7523103861044973</v>
       </c>
       <c r="I11">
         <v>0.3141755549420822</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.026746889081977</v>
+        <v>2.02674688908192</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.123035299207572</v>
+        <v>4.123035299207515</v>
       </c>
       <c r="C12">
-        <v>1.451138065066402</v>
+        <v>1.451138065066345</v>
       </c>
       <c r="D12">
-        <v>0.04325797067051695</v>
+        <v>0.04325797067042458</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.165572705443807</v>
+        <v>2.165572705443822</v>
       </c>
       <c r="G12">
         <v>1.450234429820583</v>
       </c>
       <c r="H12">
-        <v>0.7689488570131076</v>
+        <v>0.7689488570131147</v>
       </c>
       <c r="I12">
-        <v>0.3234905160755801</v>
+        <v>0.3234905160755588</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.084628506971413</v>
+        <v>2.084628506971441</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.099622131718775</v>
+        <v>4.099622131718718</v>
       </c>
       <c r="C13">
-        <v>1.442762820317682</v>
+        <v>1.442762820318023</v>
       </c>
       <c r="D13">
-        <v>0.04302928015548702</v>
+        <v>0.04302928015540175</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.153461135928467</v>
+        <v>2.153461135928438</v>
       </c>
       <c r="G13">
-        <v>1.442225423413277</v>
+        <v>1.442225423413248</v>
       </c>
       <c r="H13">
-        <v>0.7653385466451894</v>
+        <v>0.7653385466451823</v>
       </c>
       <c r="I13">
-        <v>0.3214735206165003</v>
+        <v>0.3214735206165074</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.023416032539501</v>
+        <v>4.023416032539387</v>
       </c>
       <c r="C14">
-        <v>1.415516273281696</v>
+        <v>1.415516273281867</v>
       </c>
       <c r="D14">
-        <v>0.04228449382156185</v>
+        <v>0.04228449382168975</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.114185616352145</v>
+        <v>2.114185616352117</v>
       </c>
       <c r="G14">
-        <v>1.416266462890547</v>
+        <v>1.416266462890533</v>
       </c>
       <c r="H14">
         <v>0.7536672303522138</v>
       </c>
       <c r="I14">
-        <v>0.314937069606998</v>
+        <v>0.3149370696069695</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.031493773543744</v>
+        <v>2.031493773543758</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.976849543510923</v>
+        <v>3.976849543511094</v>
       </c>
       <c r="C15">
-        <v>1.398877158153255</v>
+        <v>1.398877158153425</v>
       </c>
       <c r="D15">
-        <v>0.04182905443275331</v>
+        <v>0.0418290544327462</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.09029616378912</v>
+        <v>2.090296163789091</v>
       </c>
       <c r="G15">
-        <v>1.400486509213763</v>
+        <v>1.400486509213778</v>
       </c>
       <c r="H15">
-        <v>0.7465956660356383</v>
+        <v>0.7465956660356525</v>
       </c>
       <c r="I15">
-        <v>0.3109644121670385</v>
+        <v>0.3109644121670314</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.006700613099881</v>
+        <v>2.006700613099895</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.71160006050701</v>
+        <v>3.71160006050718</v>
       </c>
       <c r="C16">
-        <v>1.304244061597501</v>
+        <v>1.304244061597672</v>
       </c>
       <c r="D16">
-        <v>0.03922992807108727</v>
+        <v>0.03922992807108017</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.955834966479941</v>
+        <v>1.955834966479912</v>
       </c>
       <c r="G16">
-        <v>1.311811631514274</v>
+        <v>1.311811631514288</v>
       </c>
       <c r="H16">
-        <v>0.7072005675579973</v>
+        <v>0.7072005675579831</v>
       </c>
       <c r="I16">
-        <v>0.2886472690654642</v>
+        <v>0.2886472690654713</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.866015404594762</v>
+        <v>1.866015404594776</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>3.550193762822346</v>
       </c>
       <c r="C17">
-        <v>1.246779244806589</v>
+        <v>1.24677924480676</v>
       </c>
       <c r="D17">
-        <v>0.03764417153979593</v>
+        <v>0.03764417153989541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.875384896942165</v>
+        <v>1.87538489694218</v>
       </c>
       <c r="G17">
-        <v>1.258878040265529</v>
+        <v>1.258878040265543</v>
       </c>
       <c r="H17">
-        <v>0.6839804061596055</v>
+        <v>0.6839804061595984</v>
       </c>
       <c r="I17">
-        <v>0.2753275699883488</v>
+        <v>0.2753275699883346</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.780858714861239</v>
+        <v>1.780858714861253</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.457796858275231</v>
+        <v>3.457796858275344</v>
       </c>
       <c r="C18">
-        <v>1.213924030881401</v>
+        <v>1.213924030881287</v>
       </c>
       <c r="D18">
-        <v>0.03673494343406247</v>
+        <v>0.03673494343418326</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.829808292931602</v>
+        <v>1.829808292931588</v>
       </c>
       <c r="G18">
         <v>1.228933153764373</v>
       </c>
       <c r="H18">
-        <v>0.6709502573524446</v>
+        <v>0.6709502573524304</v>
       </c>
       <c r="I18">
-        <v>0.2677919047754855</v>
+        <v>0.2677919047754997</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426584413857938</v>
+        <v>3.426584413858109</v>
       </c>
       <c r="C19">
-        <v>1.202831886431056</v>
+        <v>1.202831886431397</v>
       </c>
       <c r="D19">
         <v>0.0364275536447991</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.81449163916497</v>
+        <v>1.814491639164956</v>
       </c>
       <c r="G19">
         <v>1.218877005282067</v>
       </c>
       <c r="H19">
-        <v>0.6665923174709789</v>
+        <v>0.6665923174709647</v>
       </c>
       <c r="I19">
-        <v>0.265261026013512</v>
+        <v>0.2652610260134978</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.71587557362308</v>
+        <v>1.715875573623094</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.567329274795725</v>
+        <v>3.567329274795611</v>
       </c>
       <c r="C20">
-        <v>1.252875654064781</v>
+        <v>1.252875654064894</v>
       </c>
       <c r="D20">
-        <v>0.03781267474840178</v>
+        <v>0.03781267474851546</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.883875749422629</v>
+        <v>1.883875749422614</v>
       </c>
       <c r="G20">
-        <v>1.264460231835116</v>
+        <v>1.264460231835102</v>
       </c>
       <c r="H20">
-        <v>0.6864180520168759</v>
+        <v>0.6864180520168688</v>
       </c>
       <c r="I20">
-        <v>0.2767322519624642</v>
+        <v>0.2767322519624926</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045776006581605</v>
+        <v>4.045776006581832</v>
       </c>
       <c r="C21">
-        <v>1.42350866301706</v>
+        <v>1.423508663016946</v>
       </c>
       <c r="D21">
-        <v>0.04250309425415821</v>
+        <v>0.04250309425392373</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.12568645926693</v>
+        <v>2.125686459266944</v>
       </c>
       <c r="G21">
-        <v>1.423865857693229</v>
+        <v>1.423865857693244</v>
       </c>
       <c r="H21">
-        <v>0.7570790946729318</v>
+        <v>0.757079094672946</v>
       </c>
       <c r="I21">
-        <v>0.3168504310690565</v>
+        <v>0.3168504310690849</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.043408832390639</v>
+        <v>2.043408832390611</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,10 +1175,10 @@
         <v>4.363358439377691</v>
       </c>
       <c r="C22">
-        <v>1.537219097847469</v>
+        <v>1.537219097847071</v>
       </c>
       <c r="D22">
-        <v>0.04560177561607048</v>
+        <v>0.0456017756159639</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>1.533343755137096</v>
       </c>
       <c r="H22">
-        <v>0.806664222160812</v>
+        <v>0.8066642221608049</v>
       </c>
       <c r="I22">
-        <v>0.3444320941488641</v>
+        <v>0.3444320941488712</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.193360342605558</v>
+        <v>4.193360342605672</v>
       </c>
       <c r="C23">
-        <v>1.476306190432297</v>
+        <v>1.476306190432183</v>
       </c>
       <c r="D23">
         <v>0.04394450279029627</v>
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.202077505577918</v>
+        <v>2.202077505577932</v>
       </c>
       <c r="G23">
-        <v>1.474384921515167</v>
+        <v>1.474384921515153</v>
       </c>
       <c r="H23">
         <v>0.7798617485450876</v>
       </c>
       <c r="I23">
-        <v>0.329573651412602</v>
+        <v>0.3295736514125878</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>3.559581081306476</v>
       </c>
       <c r="C24">
-        <v>1.250118904932776</v>
+        <v>1.250118904932833</v>
       </c>
       <c r="D24">
-        <v>0.03773648691603171</v>
+        <v>0.03773648691581855</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.880034944269781</v>
+        <v>1.880034944269795</v>
       </c>
       <c r="G24">
-        <v>1.261935013893336</v>
+        <v>1.26193501389335</v>
       </c>
       <c r="H24">
-        <v>0.6853150027152921</v>
+        <v>0.6853150027153063</v>
       </c>
       <c r="I24">
-        <v>0.2760968177857634</v>
+        <v>0.2760968177857777</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>2.892335679787095</v>
       </c>
       <c r="C25">
-        <v>1.013484594996015</v>
+        <v>1.013484594996186</v>
       </c>
       <c r="D25">
-        <v>0.03114605343955645</v>
+        <v>0.03114605343962751</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>1.558769346454525</v>
       </c>
       <c r="G25">
-        <v>1.051572019642464</v>
+        <v>1.051572019642492</v>
       </c>
       <c r="H25">
         <v>0.5955561173017401</v>
       </c>
       <c r="I25">
-        <v>0.2231097701783327</v>
+        <v>0.2231097701783185</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.410664244856434</v>
+        <v>2.410664244856207</v>
       </c>
       <c r="C2">
-        <v>0.8435838743282886</v>
+        <v>0.8435838743278623</v>
       </c>
       <c r="D2">
-        <v>0.02634910146130665</v>
+        <v>0.02634910146119296</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.339384596135886</v>
+        <v>1.339384596135872</v>
       </c>
       <c r="G2">
         <v>0.9090841679827548</v>
       </c>
       <c r="H2">
-        <v>0.5377030448699571</v>
+        <v>0.5377030448699642</v>
       </c>
       <c r="I2">
         <v>0.1870590600013387</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088336028609348</v>
+        <v>2.088336028609319</v>
       </c>
       <c r="C3">
-        <v>0.7303073934147335</v>
+        <v>0.7303073934148756</v>
       </c>
       <c r="D3">
-        <v>0.02311798892987227</v>
+        <v>0.02311798892989003</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.199170350499259</v>
+        <v>1.199170350499244</v>
       </c>
       <c r="G3">
         <v>0.8186607894343467</v>
       </c>
       <c r="H3">
-        <v>0.5026676920146755</v>
+        <v>0.5026676920146684</v>
       </c>
       <c r="I3">
-        <v>0.164031204929433</v>
+        <v>0.1640312049294472</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.025726454627311</v>
+        <v>1.025726454627318</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.891904610764868</v>
+        <v>1.891904610765096</v>
       </c>
       <c r="C4">
-        <v>0.6614361712495622</v>
+        <v>0.6614361712494485</v>
       </c>
       <c r="D4">
-        <v>0.02113965615707869</v>
+        <v>0.02113965615707158</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.11660512615974</v>
+        <v>1.116605126159726</v>
       </c>
       <c r="G4">
-        <v>0.7657085983575485</v>
+        <v>0.7657085983575627</v>
       </c>
       <c r="H4">
-        <v>0.4829338708939446</v>
+        <v>0.4829338708939517</v>
       </c>
       <c r="I4">
-        <v>0.1504583089656641</v>
+        <v>0.1504583089656428</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9266301516235629</v>
+        <v>0.9266301516235558</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812156598950111</v>
+        <v>1.812156598949997</v>
       </c>
       <c r="C5">
-        <v>0.6335098314100662</v>
+        <v>0.6335098314099525</v>
       </c>
       <c r="D5">
-        <v>0.02033432516402556</v>
+        <v>0.02033432516408951</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0.7447135350172616</v>
       </c>
       <c r="H5">
-        <v>0.4753013142488953</v>
+        <v>0.4753013142488882</v>
       </c>
       <c r="I5">
-        <v>0.1450527741957153</v>
+        <v>0.1450527741957188</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8865767383767604</v>
+        <v>0.8865767383767462</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798930576395321</v>
+        <v>1.798930576395151</v>
       </c>
       <c r="C6">
-        <v>0.6288802097081145</v>
+        <v>0.628880209707944</v>
       </c>
       <c r="D6">
-        <v>0.02020063722518017</v>
+        <v>0.02020063722524057</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0.7412608251318886</v>
       </c>
       <c r="H6">
-        <v>0.4740575910792444</v>
+        <v>0.4740575910792586</v>
       </c>
       <c r="I6">
-        <v>0.1441623065456454</v>
+        <v>0.1441623065456348</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.890827980571231</v>
+        <v>1.890827980571288</v>
       </c>
       <c r="C7">
-        <v>0.6610590234020606</v>
+        <v>0.6610590234019469</v>
       </c>
       <c r="D7">
-        <v>0.02112879240326393</v>
+        <v>0.02112879240333498</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>1.116159017979768</v>
       </c>
       <c r="G7">
-        <v>0.7654231683516386</v>
+        <v>0.7654231683516457</v>
       </c>
       <c r="H7">
-        <v>0.4828293270008146</v>
+        <v>0.482829327000843</v>
       </c>
       <c r="I7">
-        <v>0.1503849209549664</v>
+        <v>0.150384920954945</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9260887172948031</v>
+        <v>0.9260887172948102</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.29917267419728</v>
+        <v>2.299172674197337</v>
       </c>
       <c r="C8">
-        <v>0.80436463817</v>
+        <v>0.8043646381700853</v>
       </c>
       <c r="D8">
-        <v>0.02523350707143379</v>
+        <v>0.02523350707142669</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,13 +655,13 @@
         <v>1.29025169710863</v>
       </c>
       <c r="G8">
-        <v>0.8773339963769047</v>
+        <v>0.8773339963769189</v>
       </c>
       <c r="H8">
-        <v>0.5252300055811716</v>
+        <v>0.5252300055811574</v>
       </c>
       <c r="I8">
-        <v>0.1789908654278207</v>
+        <v>0.1789908654277923</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.132757420106813</v>
+        <v>1.132757420106827</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.115329278091224</v>
+        <v>3.115329278091281</v>
       </c>
       <c r="C9">
-        <v>1.092400721859292</v>
+        <v>1.092400721859235</v>
       </c>
       <c r="D9">
-        <v>0.03335525290056296</v>
+        <v>0.03335525290057006</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.663997227179934</v>
+        <v>1.663997227179919</v>
       </c>
       <c r="G9">
-        <v>1.120275421553444</v>
+        <v>1.120275421553458</v>
       </c>
       <c r="H9">
-        <v>0.6243721887716234</v>
+        <v>0.6243721887716092</v>
       </c>
       <c r="I9">
-        <v>0.2404329493660669</v>
+        <v>0.240432949366074</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.730080333304102</v>
+        <v>3.730080333304272</v>
       </c>
       <c r="C10">
-        <v>1.310829286200033</v>
+        <v>1.310829286199976</v>
       </c>
       <c r="D10">
-        <v>0.03941128578672703</v>
+        <v>0.03941128578683362</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.965112943335882</v>
+        <v>1.965112943335868</v>
       </c>
       <c r="G10">
         <v>1.317922284016404</v>
       </c>
       <c r="H10">
-        <v>0.7098958637251229</v>
+        <v>0.70989586372513</v>
       </c>
       <c r="I10">
-        <v>0.2901849140598927</v>
+        <v>0.2901849140599282</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.875787283034555</v>
+        <v>1.875787283034541</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.014504549515891</v>
+        <v>4.014504549515777</v>
       </c>
       <c r="C11">
-        <v>1.412331431491737</v>
+        <v>1.412331431491623</v>
       </c>
       <c r="D11">
-        <v>0.04219735533101243</v>
+        <v>0.04219735533122559</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.10960737531704</v>
+        <v>2.109607375317054</v>
       </c>
       <c r="G11">
         <v>1.413241777532619</v>
       </c>
       <c r="H11">
-        <v>0.7523103861044973</v>
+        <v>0.7523103861044902</v>
       </c>
       <c r="I11">
         <v>0.3141755549420822</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.02674688908192</v>
+        <v>2.026746889081977</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.123035299207515</v>
+        <v>4.123035299207572</v>
       </c>
       <c r="C12">
-        <v>1.451138065066345</v>
+        <v>1.451138065066402</v>
       </c>
       <c r="D12">
-        <v>0.04325797067042458</v>
+        <v>0.04325797067051695</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.165572705443822</v>
+        <v>2.165572705443807</v>
       </c>
       <c r="G12">
         <v>1.450234429820583</v>
       </c>
       <c r="H12">
-        <v>0.7689488570131147</v>
+        <v>0.7689488570131076</v>
       </c>
       <c r="I12">
-        <v>0.3234905160755588</v>
+        <v>0.3234905160755801</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.084628506971441</v>
+        <v>2.084628506971413</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.099622131718718</v>
+        <v>4.099622131718775</v>
       </c>
       <c r="C13">
-        <v>1.442762820318023</v>
+        <v>1.442762820317682</v>
       </c>
       <c r="D13">
-        <v>0.04302928015540175</v>
+        <v>0.04302928015548702</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.153461135928438</v>
+        <v>2.153461135928467</v>
       </c>
       <c r="G13">
-        <v>1.442225423413248</v>
+        <v>1.442225423413277</v>
       </c>
       <c r="H13">
-        <v>0.7653385466451823</v>
+        <v>0.7653385466451894</v>
       </c>
       <c r="I13">
-        <v>0.3214735206165074</v>
+        <v>0.3214735206165003</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.023416032539387</v>
+        <v>4.023416032539501</v>
       </c>
       <c r="C14">
-        <v>1.415516273281867</v>
+        <v>1.415516273281696</v>
       </c>
       <c r="D14">
-        <v>0.04228449382168975</v>
+        <v>0.04228449382156185</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.114185616352117</v>
+        <v>2.114185616352145</v>
       </c>
       <c r="G14">
-        <v>1.416266462890533</v>
+        <v>1.416266462890547</v>
       </c>
       <c r="H14">
         <v>0.7536672303522138</v>
       </c>
       <c r="I14">
-        <v>0.3149370696069695</v>
+        <v>0.314937069606998</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.031493773543758</v>
+        <v>2.031493773543744</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.976849543511094</v>
+        <v>3.976849543510923</v>
       </c>
       <c r="C15">
-        <v>1.398877158153425</v>
+        <v>1.398877158153255</v>
       </c>
       <c r="D15">
-        <v>0.0418290544327462</v>
+        <v>0.04182905443275331</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.090296163789091</v>
+        <v>2.09029616378912</v>
       </c>
       <c r="G15">
-        <v>1.400486509213778</v>
+        <v>1.400486509213763</v>
       </c>
       <c r="H15">
-        <v>0.7465956660356525</v>
+        <v>0.7465956660356383</v>
       </c>
       <c r="I15">
-        <v>0.3109644121670314</v>
+        <v>0.3109644121670385</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.006700613099895</v>
+        <v>2.006700613099881</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.71160006050718</v>
+        <v>3.71160006050701</v>
       </c>
       <c r="C16">
-        <v>1.304244061597672</v>
+        <v>1.304244061597501</v>
       </c>
       <c r="D16">
-        <v>0.03922992807108017</v>
+        <v>0.03922992807108727</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.955834966479912</v>
+        <v>1.955834966479941</v>
       </c>
       <c r="G16">
-        <v>1.311811631514288</v>
+        <v>1.311811631514274</v>
       </c>
       <c r="H16">
-        <v>0.7072005675579831</v>
+        <v>0.7072005675579973</v>
       </c>
       <c r="I16">
-        <v>0.2886472690654713</v>
+        <v>0.2886472690654642</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.866015404594776</v>
+        <v>1.866015404594762</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>3.550193762822346</v>
       </c>
       <c r="C17">
-        <v>1.24677924480676</v>
+        <v>1.246779244806589</v>
       </c>
       <c r="D17">
-        <v>0.03764417153989541</v>
+        <v>0.03764417153979593</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.87538489694218</v>
+        <v>1.875384896942165</v>
       </c>
       <c r="G17">
-        <v>1.258878040265543</v>
+        <v>1.258878040265529</v>
       </c>
       <c r="H17">
-        <v>0.6839804061595984</v>
+        <v>0.6839804061596055</v>
       </c>
       <c r="I17">
-        <v>0.2753275699883346</v>
+        <v>0.2753275699883488</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.780858714861253</v>
+        <v>1.780858714861239</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.457796858275344</v>
+        <v>3.457796858275231</v>
       </c>
       <c r="C18">
-        <v>1.213924030881287</v>
+        <v>1.213924030881401</v>
       </c>
       <c r="D18">
-        <v>0.03673494343418326</v>
+        <v>0.03673494343406247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.829808292931588</v>
+        <v>1.829808292931602</v>
       </c>
       <c r="G18">
         <v>1.228933153764373</v>
       </c>
       <c r="H18">
-        <v>0.6709502573524304</v>
+        <v>0.6709502573524446</v>
       </c>
       <c r="I18">
-        <v>0.2677919047754997</v>
+        <v>0.2677919047754855</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426584413858109</v>
+        <v>3.426584413857938</v>
       </c>
       <c r="C19">
-        <v>1.202831886431397</v>
+        <v>1.202831886431056</v>
       </c>
       <c r="D19">
         <v>0.0364275536447991</v>
@@ -1070,16 +1070,16 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.814491639164956</v>
+        <v>1.81449163916497</v>
       </c>
       <c r="G19">
         <v>1.218877005282067</v>
       </c>
       <c r="H19">
-        <v>0.6665923174709647</v>
+        <v>0.6665923174709789</v>
       </c>
       <c r="I19">
-        <v>0.2652610260134978</v>
+        <v>0.265261026013512</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.715875573623094</v>
+        <v>1.71587557362308</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.567329274795611</v>
+        <v>3.567329274795725</v>
       </c>
       <c r="C20">
-        <v>1.252875654064894</v>
+        <v>1.252875654064781</v>
       </c>
       <c r="D20">
-        <v>0.03781267474851546</v>
+        <v>0.03781267474840178</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.883875749422614</v>
+        <v>1.883875749422629</v>
       </c>
       <c r="G20">
-        <v>1.264460231835102</v>
+        <v>1.264460231835116</v>
       </c>
       <c r="H20">
-        <v>0.6864180520168688</v>
+        <v>0.6864180520168759</v>
       </c>
       <c r="I20">
-        <v>0.2767322519624926</v>
+        <v>0.2767322519624642</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045776006581832</v>
+        <v>4.045776006581605</v>
       </c>
       <c r="C21">
-        <v>1.423508663016946</v>
+        <v>1.42350866301706</v>
       </c>
       <c r="D21">
-        <v>0.04250309425392373</v>
+        <v>0.04250309425415821</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.125686459266944</v>
+        <v>2.12568645926693</v>
       </c>
       <c r="G21">
-        <v>1.423865857693244</v>
+        <v>1.423865857693229</v>
       </c>
       <c r="H21">
-        <v>0.757079094672946</v>
+        <v>0.7570790946729318</v>
       </c>
       <c r="I21">
-        <v>0.3168504310690849</v>
+        <v>0.3168504310690565</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.043408832390611</v>
+        <v>2.043408832390639</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,10 +1175,10 @@
         <v>4.363358439377691</v>
       </c>
       <c r="C22">
-        <v>1.537219097847071</v>
+        <v>1.537219097847469</v>
       </c>
       <c r="D22">
-        <v>0.0456017756159639</v>
+        <v>0.04560177561607048</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>1.533343755137096</v>
       </c>
       <c r="H22">
-        <v>0.8066642221608049</v>
+        <v>0.806664222160812</v>
       </c>
       <c r="I22">
-        <v>0.3444320941488712</v>
+        <v>0.3444320941488641</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.193360342605672</v>
+        <v>4.193360342605558</v>
       </c>
       <c r="C23">
-        <v>1.476306190432183</v>
+        <v>1.476306190432297</v>
       </c>
       <c r="D23">
         <v>0.04394450279029627</v>
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.202077505577932</v>
+        <v>2.202077505577918</v>
       </c>
       <c r="G23">
-        <v>1.474384921515153</v>
+        <v>1.474384921515167</v>
       </c>
       <c r="H23">
         <v>0.7798617485450876</v>
       </c>
       <c r="I23">
-        <v>0.3295736514125878</v>
+        <v>0.329573651412602</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>3.559581081306476</v>
       </c>
       <c r="C24">
-        <v>1.250118904932833</v>
+        <v>1.250118904932776</v>
       </c>
       <c r="D24">
-        <v>0.03773648691581855</v>
+        <v>0.03773648691603171</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.880034944269795</v>
+        <v>1.880034944269781</v>
       </c>
       <c r="G24">
-        <v>1.26193501389335</v>
+        <v>1.261935013893336</v>
       </c>
       <c r="H24">
-        <v>0.6853150027153063</v>
+        <v>0.6853150027152921</v>
       </c>
       <c r="I24">
-        <v>0.2760968177857777</v>
+        <v>0.2760968177857634</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>2.892335679787095</v>
       </c>
       <c r="C25">
-        <v>1.013484594996186</v>
+        <v>1.013484594996015</v>
       </c>
       <c r="D25">
-        <v>0.03114605343962751</v>
+        <v>0.03114605343955645</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>1.558769346454525</v>
       </c>
       <c r="G25">
-        <v>1.051572019642492</v>
+        <v>1.051572019642464</v>
       </c>
       <c r="H25">
         <v>0.5955561173017401</v>
       </c>
       <c r="I25">
-        <v>0.2231097701783185</v>
+        <v>0.2231097701783327</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.410664244856207</v>
+        <v>2.410562476664154</v>
       </c>
       <c r="C2">
-        <v>0.8435838743278623</v>
+        <v>0.8432069336761572</v>
       </c>
       <c r="D2">
-        <v>0.02634910146119296</v>
+        <v>0.02644049715889452</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.339384596135872</v>
+        <v>1.337602641118835</v>
       </c>
       <c r="G2">
-        <v>0.9090841679827548</v>
+        <v>0.2884719904029254</v>
       </c>
       <c r="H2">
-        <v>0.5377030448699642</v>
+        <v>0.6230901578437198</v>
       </c>
       <c r="I2">
-        <v>0.1870590600013387</v>
+        <v>0.5367432404918802</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1870405768489611</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.189625430336065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.189648135232289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088336028609319</v>
+        <v>2.088272631087165</v>
       </c>
       <c r="C3">
-        <v>0.7303073934148756</v>
+        <v>0.7299920141337566</v>
       </c>
       <c r="D3">
-        <v>0.02311798892989003</v>
+        <v>0.02319706219218887</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.199170350499244</v>
+        <v>1.197591204722215</v>
       </c>
       <c r="G3">
-        <v>0.8186607894343467</v>
+        <v>0.2557551696379505</v>
       </c>
       <c r="H3">
-        <v>0.5026676920146684</v>
+        <v>0.5656505373731022</v>
       </c>
       <c r="I3">
-        <v>0.1640312049294472</v>
+        <v>0.5018085582681806</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1640156719752426</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.025726454627318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.025753656429337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.891904610765096</v>
+        <v>1.891861898984047</v>
       </c>
       <c r="C4">
-        <v>0.6614361712494485</v>
+        <v>0.6611571569229397</v>
       </c>
       <c r="D4">
-        <v>0.02113965615707158</v>
+        <v>0.02121114845138194</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.116605126159726</v>
+        <v>1.11514687226483</v>
       </c>
       <c r="G4">
-        <v>0.7657085983575627</v>
+        <v>0.236487800477363</v>
       </c>
       <c r="H4">
-        <v>0.4829338708939517</v>
+        <v>0.5321251028075196</v>
       </c>
       <c r="I4">
-        <v>0.1504583089656428</v>
+        <v>0.4821348001693693</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1504446756264173</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9266301516235558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.926658884796467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812156598949997</v>
+        <v>1.812121689788228</v>
       </c>
       <c r="C5">
-        <v>0.6335098314099525</v>
+        <v>0.6332453306567061</v>
       </c>
       <c r="D5">
-        <v>0.02033432516408951</v>
+        <v>0.02040272285213618</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.083758372366248</v>
+        <v>1.082348597496718</v>
       </c>
       <c r="G5">
-        <v>0.7447135350172616</v>
+        <v>0.2288213247569075</v>
       </c>
       <c r="H5">
-        <v>0.4753013142488882</v>
+        <v>0.5188604895411686</v>
       </c>
       <c r="I5">
-        <v>0.1450527741957188</v>
+        <v>0.4745263393988566</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1450399390744437</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8865767383767462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.8866058297994073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798930576395151</v>
+        <v>1.798896927598406</v>
       </c>
       <c r="C6">
-        <v>0.628880209707944</v>
+        <v>0.6286181019823687</v>
       </c>
       <c r="D6">
-        <v>0.02020063722524057</v>
+        <v>0.0202685206935449</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.078350036226468</v>
+        <v>1.076948267328589</v>
       </c>
       <c r="G6">
-        <v>0.7412608251318886</v>
+        <v>0.2275589034618832</v>
       </c>
       <c r="H6">
-        <v>0.4740575910792586</v>
+        <v>0.5166807691481097</v>
       </c>
       <c r="I6">
-        <v>0.1441623065456348</v>
+        <v>0.4732865959885686</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1441496054681934</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8799441853402641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8799733213664993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.890827980571288</v>
+        <v>1.890785376438288</v>
       </c>
       <c r="C7">
-        <v>0.6610590234019469</v>
+        <v>0.6607802059780283</v>
       </c>
       <c r="D7">
-        <v>0.02112879240333498</v>
+        <v>0.02120024298606182</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.116159017979768</v>
+        <v>1.114701420910009</v>
       </c>
       <c r="G7">
-        <v>0.7654231683516457</v>
+        <v>0.2363836850127257</v>
       </c>
       <c r="H7">
-        <v>0.482829327000843</v>
+        <v>0.5319446548062032</v>
       </c>
       <c r="I7">
-        <v>0.150384920954945</v>
+        <v>0.4820305827071536</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1503712982810832</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9260887172948102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.9261174563218404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299172674197337</v>
+        <v>2.299084793507689</v>
       </c>
       <c r="C8">
-        <v>0.8043646381700853</v>
+        <v>0.8040092565207715</v>
       </c>
       <c r="D8">
-        <v>0.02523350707142669</v>
+        <v>0.02532065612130197</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.29025169710863</v>
+        <v>1.288540506555137</v>
       </c>
       <c r="G8">
-        <v>0.8773339963769189</v>
+        <v>0.2770074898315613</v>
       </c>
       <c r="H8">
-        <v>0.5252300055811574</v>
+        <v>0.6028975632275717</v>
       </c>
       <c r="I8">
-        <v>0.1789908654277923</v>
+        <v>0.5243053133176332</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1789733825923427</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.132757420106827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.132781958664935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.115329278091281</v>
+        <v>3.115124900193337</v>
       </c>
       <c r="C9">
-        <v>1.092400721859235</v>
+        <v>1.091880993681656</v>
       </c>
       <c r="D9">
-        <v>0.03335525290057006</v>
+        <v>0.03347314615469088</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.663997227179919</v>
+        <v>1.66175329994627</v>
       </c>
       <c r="G9">
-        <v>1.120275421553458</v>
+        <v>0.3642442271665516</v>
       </c>
       <c r="H9">
-        <v>0.6243721887716092</v>
+        <v>0.7579032376291082</v>
       </c>
       <c r="I9">
-        <v>0.240432949366074</v>
+        <v>0.6231835741559166</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2404084633129102</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.553144514597321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.553148769322377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.730080333304272</v>
+        <v>3.7297655419747</v>
       </c>
       <c r="C10">
-        <v>1.310829286199976</v>
+        <v>1.310175591139853</v>
       </c>
       <c r="D10">
-        <v>0.03941128578683362</v>
+        <v>0.03955186482457407</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.965112943335868</v>
+        <v>1.962445295894966</v>
       </c>
       <c r="G10">
-        <v>1.317922284016404</v>
+        <v>0.4346054337107006</v>
       </c>
       <c r="H10">
-        <v>0.70989586372513</v>
+        <v>0.8846358462378134</v>
       </c>
       <c r="I10">
-        <v>0.2901849140599282</v>
+        <v>0.7084980687127995</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2901553453108932</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.875787283034541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.875765466561106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.014504549515777</v>
+        <v>4.014131983914979</v>
       </c>
       <c r="C11">
-        <v>1.412331431491623</v>
+        <v>1.411612686181286</v>
       </c>
       <c r="D11">
-        <v>0.04219735533122559</v>
+        <v>0.04234830717065563</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.109607375317054</v>
+        <v>2.106737038746232</v>
       </c>
       <c r="G11">
-        <v>1.413241777532619</v>
+        <v>0.4684002349682288</v>
       </c>
       <c r="H11">
-        <v>0.7523103861044902</v>
+        <v>0.9458969745489441</v>
       </c>
       <c r="I11">
-        <v>0.3141755549420822</v>
+        <v>0.7508127718077375</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3141435855916157</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.026746889081977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.026709701585773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.123035299207572</v>
+        <v>4.122639552533542</v>
       </c>
       <c r="C12">
-        <v>1.451138065066402</v>
+        <v>1.450393971766744</v>
       </c>
       <c r="D12">
-        <v>0.04325797067051695</v>
+        <v>0.04341286093823271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.165572705443807</v>
+        <v>2.162623892954187</v>
       </c>
       <c r="G12">
-        <v>1.450234429820583</v>
+        <v>0.4814952915782413</v>
       </c>
       <c r="H12">
-        <v>0.7689488570131076</v>
+        <v>0.9696927060635261</v>
       </c>
       <c r="I12">
-        <v>0.3234905160755801</v>
+        <v>0.7674126383441191</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3234576124213717</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.084628506971413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2.084584879918722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.099622131718775</v>
+        <v>4.099231439345658</v>
       </c>
       <c r="C13">
-        <v>1.442762820317682</v>
+        <v>1.442024220161215</v>
       </c>
       <c r="D13">
-        <v>0.04302928015548702</v>
+        <v>0.04318332169705741</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.153461135928467</v>
+        <v>2.150529306432745</v>
       </c>
       <c r="G13">
-        <v>1.442225423413277</v>
+        <v>0.4786610902384751</v>
       </c>
       <c r="H13">
-        <v>0.7653385466451894</v>
+        <v>0.9645399367221756</v>
       </c>
       <c r="I13">
-        <v>0.3214735206165003</v>
+        <v>0.7638106803123534</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3214408195486342</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.072128807143173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.072086596556943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.023416032539501</v>
+        <v>4.023041587320336</v>
       </c>
       <c r="C14">
-        <v>1.415516273281696</v>
+        <v>1.41479545769073</v>
       </c>
       <c r="D14">
-        <v>0.04228449382156185</v>
+        <v>0.04243576945027172</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.114185616352145</v>
+        <v>2.111308859891182</v>
       </c>
       <c r="G14">
-        <v>1.416266462890547</v>
+        <v>0.4694713543919278</v>
       </c>
       <c r="H14">
-        <v>0.7536672303522138</v>
+        <v>0.9478422034185741</v>
       </c>
       <c r="I14">
-        <v>0.314937069606998</v>
+        <v>0.7521664570367932</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3149050239833571</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.031493773543744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.031456069401102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.976849543510923</v>
+        <v>3.976484873311961</v>
       </c>
       <c r="C15">
-        <v>1.398877158153255</v>
+        <v>1.398167138980682</v>
       </c>
       <c r="D15">
-        <v>0.04182905443275331</v>
+        <v>0.04197863731482698</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.09029616378912</v>
+        <v>2.087452907341813</v>
       </c>
       <c r="G15">
-        <v>1.400486509213763</v>
+        <v>0.4638824448614827</v>
       </c>
       <c r="H15">
-        <v>0.7465956660356383</v>
+        <v>0.9376946709015215</v>
       </c>
       <c r="I15">
-        <v>0.3109644121670385</v>
+        <v>0.7451113787579331</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3109327642920547</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.006700613099881</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2.006665584908163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.71160006050701</v>
+        <v>3.711288875202115</v>
       </c>
       <c r="C16">
-        <v>1.304244061597501</v>
+        <v>1.303594524915297</v>
       </c>
       <c r="D16">
-        <v>0.03922992807108727</v>
+        <v>0.03936983052398091</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.955834966479941</v>
+        <v>1.953180341367528</v>
       </c>
       <c r="G16">
-        <v>1.311811631514274</v>
+        <v>0.4324361864836845</v>
       </c>
       <c r="H16">
-        <v>0.7072005675579973</v>
+        <v>0.8807113969098879</v>
       </c>
       <c r="I16">
-        <v>0.2886472690654642</v>
+        <v>0.7058091911621673</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2886178544402327</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.866015404594762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.865994512768395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.550193762822346</v>
+        <v>3.549913312062813</v>
       </c>
       <c r="C17">
-        <v>1.246779244806589</v>
+        <v>1.246165678002683</v>
       </c>
       <c r="D17">
-        <v>0.03764417153979593</v>
+        <v>0.03777815085356906</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.875384896942165</v>
+        <v>1.87284325266657</v>
       </c>
       <c r="G17">
-        <v>1.258878040265529</v>
+        <v>0.413629998622568</v>
       </c>
       <c r="H17">
-        <v>0.6839804061596055</v>
+        <v>0.846731213732653</v>
       </c>
       <c r="I17">
-        <v>0.2753275699883488</v>
+        <v>0.6826447446385657</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2752994950237309</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.780858714861239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.780845521754486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.457796858275231</v>
+        <v>3.457533389918467</v>
       </c>
       <c r="C18">
-        <v>1.213924030881401</v>
+        <v>1.213330774874578</v>
       </c>
       <c r="D18">
-        <v>0.03673494343406247</v>
+        <v>0.03686552070688975</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.829808292931602</v>
+        <v>1.827330717162596</v>
       </c>
       <c r="G18">
-        <v>1.228933153764373</v>
+        <v>0.4029786635707211</v>
       </c>
       <c r="H18">
-        <v>0.6709502573524446</v>
+        <v>0.8275212347316483</v>
       </c>
       <c r="I18">
-        <v>0.2677919047754855</v>
+        <v>0.6696462120019646</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2677645929751264</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.732265318289421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.732256230821818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426584413857938</v>
+        <v>3.426326582088848</v>
       </c>
       <c r="C19">
-        <v>1.202831886431056</v>
+        <v>1.202245445820665</v>
       </c>
       <c r="D19">
-        <v>0.0364275536447991</v>
+        <v>0.03655697978576455</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.81449163916497</v>
+        <v>1.81203560686528</v>
       </c>
       <c r="G19">
-        <v>1.218877005282067</v>
+        <v>0.3993995708902531</v>
       </c>
       <c r="H19">
-        <v>0.6665923174709789</v>
+        <v>0.8210722947846563</v>
       </c>
       <c r="I19">
-        <v>0.265261026013512</v>
+        <v>0.6652989067789647</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2652339716601091</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.71587557362308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.715867823985363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.567329274795725</v>
+        <v>3.567045625713888</v>
       </c>
       <c r="C20">
-        <v>1.252875654064781</v>
+        <v>1.252258298174809</v>
       </c>
       <c r="D20">
-        <v>0.03781267474840178</v>
+        <v>0.0379472840750239</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.883875749422629</v>
+        <v>1.881322174817569</v>
       </c>
       <c r="G20">
-        <v>1.264460231835116</v>
+        <v>0.4156145439708325</v>
       </c>
       <c r="H20">
-        <v>0.6864180520168759</v>
+        <v>0.850313304712202</v>
       </c>
       <c r="I20">
-        <v>0.2767322519624642</v>
+        <v>0.6850765049129635</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2767040352299333</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.789883012147413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.789869033626402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045776006581605</v>
+        <v>4.045396826474985</v>
       </c>
       <c r="C21">
-        <v>1.42350866301706</v>
+        <v>1.422782644164215</v>
       </c>
       <c r="D21">
-        <v>0.04250309425415821</v>
+        <v>0.04265518198968721</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.12568645926693</v>
+        <v>2.122793575843161</v>
       </c>
       <c r="G21">
-        <v>1.423865857693229</v>
+        <v>0.4721621718224753</v>
       </c>
       <c r="H21">
-        <v>0.7570790946729318</v>
+        <v>0.9527298408396518</v>
       </c>
       <c r="I21">
-        <v>0.3168504310690565</v>
+        <v>0.75557038651597</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3168181937312582</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.043408832390639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2.043369822417418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.363358439377691</v>
+        <v>4.362909097937575</v>
       </c>
       <c r="C22">
-        <v>1.537219097847469</v>
+        <v>1.53641782081894</v>
       </c>
       <c r="D22">
-        <v>0.04560177561607048</v>
+        <v>0.04576534912514774</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.291095119372855</v>
+        <v>2.287970266276702</v>
       </c>
       <c r="G22">
-        <v>1.533343755137096</v>
+        <v>0.5108774925586488</v>
       </c>
       <c r="H22">
-        <v>0.806664222160812</v>
+        <v>1.023191703660231</v>
       </c>
       <c r="I22">
-        <v>0.3444320941488641</v>
+        <v>0.8050414924809104</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3443970728899473</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.213343945114516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.213284897428011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.193360342605558</v>
+        <v>4.192949236910181</v>
       </c>
       <c r="C23">
-        <v>1.476306190432297</v>
+        <v>1.475545514925557</v>
       </c>
       <c r="D23">
-        <v>0.04394450279029627</v>
+        <v>0.04410193936092099</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.202077505577918</v>
+        <v>2.199077504136625</v>
       </c>
       <c r="G23">
-        <v>1.474384921515167</v>
+        <v>0.4900386175934415</v>
       </c>
       <c r="H23">
-        <v>0.7798617485450876</v>
+        <v>0.9852334826178577</v>
       </c>
       <c r="I23">
-        <v>0.329573651412602</v>
+        <v>0.7783003616981858</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.329540135564713</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.122216229058608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.122168256487029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.559581081306476</v>
+        <v>3.559298880311019</v>
       </c>
       <c r="C24">
-        <v>1.250118904932776</v>
+        <v>1.249503263228121</v>
       </c>
       <c r="D24">
-        <v>0.03773648691603171</v>
+        <v>0.03787081140390569</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.880034944269781</v>
+        <v>1.877486766103829</v>
       </c>
       <c r="G24">
-        <v>1.261935013893336</v>
+        <v>0.4147168338151488</v>
       </c>
       <c r="H24">
-        <v>0.6853150027152921</v>
+        <v>0.848692832747858</v>
       </c>
       <c r="I24">
-        <v>0.2760968177857634</v>
+        <v>0.6839761177663135</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2760686651674931</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.785802001000036</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.785788378554614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.892335679787095</v>
+        <v>2.892166532657427</v>
       </c>
       <c r="C25">
-        <v>1.013484594996015</v>
+        <v>1.013011279003194</v>
       </c>
       <c r="D25">
-        <v>0.03114605343955645</v>
+        <v>0.03125562201066856</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.558769346454525</v>
+        <v>1.556674344246886</v>
       </c>
       <c r="G25">
-        <v>1.051572019642464</v>
+        <v>0.3396742171425728</v>
       </c>
       <c r="H25">
-        <v>0.5955561173017401</v>
+        <v>0.7139648545648924</v>
       </c>
       <c r="I25">
-        <v>0.2231097701783327</v>
+        <v>0.5944411820943074</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2230871412410309</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.437361509259532</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.43737289552854</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.410562476664154</v>
+        <v>2.356619765028313</v>
       </c>
       <c r="C2">
-        <v>0.8432069336761572</v>
+        <v>0.2506786340600939</v>
       </c>
       <c r="D2">
-        <v>0.02644049715889452</v>
+        <v>0.002564088827553324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.337602641118835</v>
+        <v>2.728427348199446</v>
       </c>
       <c r="G2">
-        <v>0.2884719904029254</v>
+        <v>0.0008388881916038076</v>
       </c>
       <c r="H2">
-        <v>0.6230901578437198</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5367432404918802</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1870405768489611</v>
+        <v>0.1004134478540593</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5211497832736853</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2335382863414566</v>
       </c>
       <c r="M2">
-        <v>1.189648135232289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.995969843875613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.088272631087165</v>
+        <v>2.064238801128738</v>
       </c>
       <c r="C3">
-        <v>0.7299920141337566</v>
+        <v>0.2191381393608367</v>
       </c>
       <c r="D3">
-        <v>0.02319706219218887</v>
+        <v>0.002408611712327868</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.197591204722215</v>
+        <v>2.561422324086067</v>
       </c>
       <c r="G3">
-        <v>0.2557551696379505</v>
+        <v>0.0008469282761868505</v>
       </c>
       <c r="H3">
-        <v>0.5656505373731022</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5018085582681806</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1640156719752426</v>
+        <v>0.09954244287158787</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4525596560321574</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2106643220049023</v>
       </c>
       <c r="M3">
-        <v>1.025753656429337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.872476965165987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.891861898984047</v>
+        <v>1.887800640110527</v>
       </c>
       <c r="C4">
-        <v>0.6611571569229397</v>
+        <v>0.1999312587591362</v>
       </c>
       <c r="D4">
-        <v>0.02121114845138194</v>
+        <v>0.002318326094116863</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.11514687226483</v>
+        <v>2.463344990815273</v>
       </c>
       <c r="G4">
-        <v>0.236487800477363</v>
+        <v>0.0008520030618371864</v>
       </c>
       <c r="H4">
-        <v>0.5321251028075196</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4821348001693693</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1504446756264173</v>
+        <v>0.09911327817253479</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4110834441567448</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.196945070026544</v>
       </c>
       <c r="M4">
-        <v>0.926658884796467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.799995676245743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.812121689788228</v>
+        <v>1.816590143338004</v>
       </c>
       <c r="C5">
-        <v>0.6332453306567061</v>
+        <v>0.1921353167364543</v>
       </c>
       <c r="D5">
-        <v>0.02040272285213618</v>
+        <v>0.00228266006777833</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.082348597496718</v>
+        <v>2.424410950333794</v>
       </c>
       <c r="G5">
-        <v>0.2288213247569075</v>
+        <v>0.0008541071837109843</v>
       </c>
       <c r="H5">
-        <v>0.5188604895411686</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4745263393988566</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1450399390744437</v>
+        <v>0.09896369083200796</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3943221178695282</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.191429192612091</v>
       </c>
       <c r="M5">
-        <v>0.8866058297994073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.771231448310971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798896927598406</v>
+        <v>1.80480494551739</v>
       </c>
       <c r="C6">
-        <v>0.6286181019823687</v>
+        <v>0.190842431240938</v>
       </c>
       <c r="D6">
-        <v>0.0202685206935449</v>
+        <v>0.002276801095987491</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.076948267328589</v>
+        <v>2.418005903711929</v>
       </c>
       <c r="G6">
-        <v>0.2275589034618832</v>
+        <v>0.0008544587904293616</v>
       </c>
       <c r="H6">
-        <v>0.5166807691481097</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4732865959885686</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1441496054681934</v>
+        <v>0.09894034488056391</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3915468487787734</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1905176103241715</v>
       </c>
       <c r="M6">
-        <v>0.8799733213664993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.766499925135506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.890785376438288</v>
+        <v>1.886837587781116</v>
       </c>
       <c r="C7">
-        <v>0.6607802059780283</v>
+        <v>0.1998260057089141</v>
       </c>
       <c r="D7">
-        <v>0.02120024298606182</v>
+        <v>0.002317840744435085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.114701420910009</v>
+        <v>2.462815842282438</v>
       </c>
       <c r="G7">
-        <v>0.2363836850127257</v>
+        <v>0.0008520312908734627</v>
       </c>
       <c r="H7">
-        <v>0.5319446548062032</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4820305827071536</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1503712982810832</v>
+        <v>0.09911115994541575</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4108568511297648</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1968703868597217</v>
       </c>
       <c r="M7">
-        <v>0.9261174563218404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.799604710643408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299084793507689</v>
+        <v>2.255112351595528</v>
       </c>
       <c r="C8">
-        <v>0.8040092565207715</v>
+        <v>0.239764785913124</v>
       </c>
       <c r="D8">
-        <v>0.02532065612130197</v>
+        <v>0.002509291503275612</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.288540506555137</v>
+        <v>2.669861449111707</v>
       </c>
       <c r="G8">
-        <v>0.2770074898315613</v>
+        <v>0.0008416325972048204</v>
       </c>
       <c r="H8">
-        <v>0.6028975632275717</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5243053133176332</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1789733825923427</v>
+        <v>0.1000904113282282</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4973548595892794</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.225579394340329</v>
       </c>
       <c r="M8">
-        <v>1.132781958664935</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.952652661364993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.115124900193337</v>
+        <v>3.00608309595907</v>
       </c>
       <c r="C9">
-        <v>1.091880993681656</v>
+        <v>0.3197987296619544</v>
       </c>
       <c r="D9">
-        <v>0.03347314615469088</v>
+        <v>0.002935271765584169</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.66175329994627</v>
+        <v>3.115728011983094</v>
       </c>
       <c r="G9">
-        <v>0.3642442271665516</v>
+        <v>0.0008222693541178818</v>
       </c>
       <c r="H9">
-        <v>0.7579032376291082</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6231835741559166</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2404084633129102</v>
+        <v>0.1029111173764043</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6730407667946352</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2848096788244163</v>
       </c>
       <c r="M9">
-        <v>1.553148769322377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.282698648041134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.7297655419747</v>
+        <v>3.582074986244436</v>
       </c>
       <c r="C10">
-        <v>1.310175591139853</v>
+        <v>0.3803525768690861</v>
       </c>
       <c r="D10">
-        <v>0.03955186482457407</v>
+        <v>0.003294972151160813</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.962445295894966</v>
+        <v>3.474447062684249</v>
       </c>
       <c r="G10">
-        <v>0.4346054337107006</v>
+        <v>0.0008085663464844654</v>
       </c>
       <c r="H10">
-        <v>0.8846358462378134</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7084980687127995</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2901553453108932</v>
+        <v>0.1056281049482735</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8073693672639024</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3306570927094867</v>
       </c>
       <c r="M10">
-        <v>1.875765466561106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.5486634423347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.014131983914979</v>
+        <v>3.851084369792432</v>
       </c>
       <c r="C11">
-        <v>1.411612686181286</v>
+        <v>0.4084630045950917</v>
       </c>
       <c r="D11">
-        <v>0.04234830717065563</v>
+        <v>0.003473237731174805</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.106737038746232</v>
+        <v>3.646138274738576</v>
       </c>
       <c r="G11">
-        <v>0.4684002349682288</v>
+        <v>0.0008024199661392087</v>
       </c>
       <c r="H11">
-        <v>0.9458969745489441</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7508127718077375</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3141435855916157</v>
+        <v>0.1070282785641865</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8700166066300454</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3521585951165207</v>
       </c>
       <c r="M11">
-        <v>2.026709701585773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.676087931498458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.122639552533542</v>
+        <v>3.954118197019852</v>
       </c>
       <c r="C12">
-        <v>1.450393971766744</v>
+        <v>0.4192062749267507</v>
       </c>
       <c r="D12">
-        <v>0.04341286093823271</v>
+        <v>0.00354330839995054</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.162623892954187</v>
+        <v>3.712541880115594</v>
       </c>
       <c r="G12">
-        <v>0.4814952915782413</v>
+        <v>0.0008001025751543174</v>
       </c>
       <c r="H12">
-        <v>0.9696927060635261</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7674126383441191</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3234576124213717</v>
+        <v>0.1075843898525122</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8939987440567734</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3604065201161859</v>
       </c>
       <c r="M12">
-        <v>2.084584879918722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.725392346788439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.099231439345658</v>
+        <v>3.931873391648594</v>
       </c>
       <c r="C13">
-        <v>1.442024220161215</v>
+        <v>0.4168878398847369</v>
       </c>
       <c r="D13">
-        <v>0.04318332169705741</v>
+        <v>0.003528095089803784</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.150529306432745</v>
+        <v>3.698176115461166</v>
       </c>
       <c r="G13">
-        <v>0.4786610902384751</v>
+        <v>0.0008006012588917006</v>
       </c>
       <c r="H13">
-        <v>0.9645399367221756</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7638106803123534</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3214408195486342</v>
+        <v>0.1074634303340432</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8888215961761858</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3586252539548695</v>
       </c>
       <c r="M13">
-        <v>2.072086596556943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.714724817707221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.023041587320336</v>
+        <v>3.859536667137661</v>
       </c>
       <c r="C14">
-        <v>1.41479545769073</v>
+        <v>0.4093447792121196</v>
       </c>
       <c r="D14">
-        <v>0.04243576945027172</v>
+        <v>0.003478948134693738</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.111308859891182</v>
+        <v>3.65157251092387</v>
       </c>
       <c r="G14">
-        <v>0.4694713543919278</v>
+        <v>0.0008022291252012259</v>
       </c>
       <c r="H14">
-        <v>0.9478422034185741</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7521664570367932</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3149050239833571</v>
+        <v>0.1070734971360281</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8719842097170698</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3528349570482732</v>
       </c>
       <c r="M14">
-        <v>2.031456069401102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.680122383888715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.976484873311961</v>
+        <v>3.815385273364711</v>
       </c>
       <c r="C15">
-        <v>1.398167138980682</v>
+        <v>0.4047378123375722</v>
       </c>
       <c r="D15">
-        <v>0.04197863731482698</v>
+        <v>0.003449193391708683</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.087452907341813</v>
+        <v>3.62321241996105</v>
       </c>
       <c r="G15">
-        <v>0.4638824448614827</v>
+        <v>0.0008032274800374989</v>
       </c>
       <c r="H15">
-        <v>0.9376946709015215</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7451113787579331</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3109327642920547</v>
+        <v>0.1068380965792457</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8617057436124753</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3493024197834131</v>
       </c>
       <c r="M15">
-        <v>2.006665584908163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.659068338548465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.711288875202115</v>
+        <v>3.564648522100867</v>
       </c>
       <c r="C16">
-        <v>1.303594524915297</v>
+        <v>0.3785282784068613</v>
       </c>
       <c r="D16">
-        <v>0.03936983052398091</v>
+        <v>0.003283654119246915</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.953180341367528</v>
+        <v>3.463411452379546</v>
       </c>
       <c r="G16">
-        <v>0.4324361864836845</v>
+        <v>0.0008089695801490205</v>
       </c>
       <c r="H16">
-        <v>0.8807113969098879</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7058091911621673</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2886178544402327</v>
+        <v>0.1055400937169217</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8033093204663544</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3292659784626721</v>
       </c>
       <c r="M16">
-        <v>1.865994512768395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.540475890137486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.549913312062813</v>
+        <v>3.412727916279721</v>
       </c>
       <c r="C17">
-        <v>1.246165678002683</v>
+        <v>0.3626057262488303</v>
       </c>
       <c r="D17">
-        <v>0.03777815085356906</v>
+        <v>0.003186152409521803</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.87284325266657</v>
+        <v>3.367668787585473</v>
       </c>
       <c r="G17">
-        <v>0.413629998622568</v>
+        <v>0.0008125128623638507</v>
       </c>
       <c r="H17">
-        <v>0.846731213732653</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6826447446385657</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2752994950237309</v>
+        <v>0.104787410556014</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7679048082598854</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3171483037143048</v>
       </c>
       <c r="M17">
-        <v>1.780845521754486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.469456649438072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.457533389918467</v>
+        <v>3.325994206436746</v>
       </c>
       <c r="C18">
-        <v>1.213330774874578</v>
+        <v>0.3534994379828618</v>
       </c>
       <c r="D18">
-        <v>0.03686552070688975</v>
+        <v>0.00313141756053259</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.827330717162596</v>
+        <v>3.313390031093775</v>
       </c>
       <c r="G18">
-        <v>0.4029786635707211</v>
+        <v>0.0008145592317759568</v>
       </c>
       <c r="H18">
-        <v>0.8275212347316483</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6696462120019646</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2677645929751264</v>
+        <v>0.1043697912118304</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7476835698263216</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3102384118377444</v>
       </c>
       <c r="M18">
-        <v>1.732256230821818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.429205639144755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426326582088848</v>
+        <v>3.296734193351938</v>
       </c>
       <c r="C19">
-        <v>1.202245445820665</v>
+        <v>0.3504246338686698</v>
       </c>
       <c r="D19">
-        <v>0.03655697978576455</v>
+        <v>0.003113103653313409</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.81203560686528</v>
+        <v>3.295143146869606</v>
       </c>
       <c r="G19">
-        <v>0.3993995708902531</v>
+        <v>0.0008152536039181335</v>
       </c>
       <c r="H19">
-        <v>0.8210722947846563</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6652989067789647</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2652339716601091</v>
+        <v>0.1042309556226364</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.740860412283908</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3079087538102101</v>
       </c>
       <c r="M19">
-        <v>1.715867823985363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.415676340393318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.567045625713888</v>
+        <v>3.428832057268608</v>
       </c>
       <c r="C20">
-        <v>1.252258298174809</v>
+        <v>0.3642952147302765</v>
       </c>
       <c r="D20">
-        <v>0.0379472840750239</v>
+        <v>0.003196389295133883</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.881322174817569</v>
+        <v>3.377777878245524</v>
       </c>
       <c r="G20">
-        <v>0.4156145439708325</v>
+        <v>0.0008121348246597546</v>
       </c>
       <c r="H20">
-        <v>0.850313304712202</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6850765049129635</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2767040352299333</v>
+        <v>0.1048659353423176</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.771658673864323</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.318431964989486</v>
       </c>
       <c r="M20">
-        <v>1.789869033626402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.476954077248422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.045396826474985</v>
+        <v>3.880750694923677</v>
       </c>
       <c r="C21">
-        <v>1.422782644164215</v>
+        <v>0.4115575373256775</v>
       </c>
       <c r="D21">
-        <v>0.04265518198968721</v>
+        <v>0.003493310073245048</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.122793575843161</v>
+        <v>3.665222042631541</v>
       </c>
       <c r="G21">
-        <v>0.4721621718224753</v>
+        <v>0.0008017507277822133</v>
       </c>
       <c r="H21">
-        <v>0.9527298408396518</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.75557038651597</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3168181937312582</v>
+        <v>0.1071873076149998</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8769224075491451</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3545327256706798</v>
       </c>
       <c r="M21">
-        <v>2.043369822417418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.690256337576457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.362909097937575</v>
+        <v>4.182990515098197</v>
       </c>
       <c r="C22">
-        <v>1.53641782081894</v>
+        <v>0.4430298567315276</v>
       </c>
       <c r="D22">
-        <v>0.04576534912514774</v>
+        <v>0.003702595357484739</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.287970266276702</v>
+        <v>3.861264368076689</v>
       </c>
       <c r="G22">
-        <v>0.5108774925586488</v>
+        <v>0.0007950217077548003</v>
       </c>
       <c r="H22">
-        <v>1.023191703660231</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8050414924809104</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3443970728899473</v>
+        <v>0.1088566623922915</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9472488166084929</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3787503890534936</v>
       </c>
       <c r="M22">
-        <v>2.213284897428011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.835860930680312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.192949236910181</v>
+        <v>4.020990935099007</v>
       </c>
       <c r="C23">
-        <v>1.475545514925557</v>
+        <v>0.4261727443337122</v>
       </c>
       <c r="D23">
-        <v>0.04410193936092099</v>
+        <v>0.003589327308038737</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.199077504136625</v>
+        <v>3.755824605543125</v>
       </c>
       <c r="G23">
-        <v>0.4900386175934415</v>
+        <v>0.0007986087221562436</v>
       </c>
       <c r="H23">
-        <v>0.9852334826178577</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7783003616981858</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.329540135564713</v>
+        <v>0.1079509424498539</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9095606130723013</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3657631824951153</v>
       </c>
       <c r="M23">
-        <v>2.122168256487029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.757535968601431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.559298880311019</v>
+        <v>3.421549494906571</v>
       </c>
       <c r="C24">
-        <v>1.249503263228121</v>
+        <v>0.3635312493844083</v>
       </c>
       <c r="D24">
-        <v>0.03787081140390569</v>
+        <v>0.003191757120898586</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.877486766103829</v>
+        <v>3.373205187799471</v>
       </c>
       <c r="G24">
-        <v>0.4147168338151488</v>
+        <v>0.00081230570634641</v>
       </c>
       <c r="H24">
-        <v>0.848692832747858</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6839761177663135</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2760686651674931</v>
+        <v>0.1048303873968415</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7699611388364218</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3178514460153252</v>
       </c>
       <c r="M24">
-        <v>1.785788378554614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.473562696333246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.892166532657427</v>
+        <v>2.799194763220669</v>
       </c>
       <c r="C25">
-        <v>1.013011279003194</v>
+        <v>0.2978956547575109</v>
       </c>
       <c r="D25">
-        <v>0.03125562201066856</v>
+        <v>0.002813145789686722</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.556674344246886</v>
+        <v>2.990179091311518</v>
       </c>
       <c r="G25">
-        <v>0.3396742171425728</v>
+        <v>0.0008274076229674441</v>
       </c>
       <c r="H25">
-        <v>0.7139648545648924</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5944411820943074</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2230871412410309</v>
+        <v>0.1020423482334536</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6247134154158687</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.268419754659817</v>
       </c>
       <c r="M25">
-        <v>1.43737289552854</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.189701408773175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.356619765028313</v>
+        <v>1.048814511988638</v>
       </c>
       <c r="C2">
-        <v>0.2506786340600939</v>
+        <v>0.1551362478333971</v>
       </c>
       <c r="D2">
-        <v>0.002564088827553324</v>
+        <v>0.0744061964710383</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.728427348199446</v>
+        <v>0.5065977417730991</v>
       </c>
       <c r="G2">
-        <v>0.0008388881916038076</v>
+        <v>0.4076172675623866</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3462896821527011</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1004134478540593</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5211497832736853</v>
+        <v>1.108257794322327</v>
       </c>
       <c r="L2">
-        <v>0.2335382863414566</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.995969843875613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.064238801128738</v>
+        <v>0.9103878460403223</v>
       </c>
       <c r="C3">
-        <v>0.2191381393608367</v>
+        <v>0.1382733777874847</v>
       </c>
       <c r="D3">
-        <v>0.002408611712327868</v>
+        <v>0.06850693956094034</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.561422324086067</v>
+        <v>0.493027127869567</v>
       </c>
       <c r="G3">
-        <v>0.0008469282761868505</v>
+        <v>0.4043707861593262</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.353164233978184</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09954244287158787</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4525596560321574</v>
+        <v>0.9639156936698328</v>
       </c>
       <c r="L3">
-        <v>0.2106643220049023</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.872476965165987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.887800640110527</v>
+        <v>0.8256994495143317</v>
       </c>
       <c r="C4">
-        <v>0.1999312587591362</v>
+        <v>0.1279193032823258</v>
       </c>
       <c r="D4">
-        <v>0.002318326094116863</v>
+        <v>0.06488002010057414</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.463344990815273</v>
+        <v>0.4861664405192769</v>
       </c>
       <c r="G4">
-        <v>0.0008520030618371864</v>
+        <v>0.4038560549419472</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3582560019479715</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09911327817253479</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4110834441567448</v>
+        <v>0.8755099511699314</v>
       </c>
       <c r="L4">
-        <v>0.196945070026544</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.799995676245743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.816590143338004</v>
+        <v>0.7912483560686212</v>
       </c>
       <c r="C5">
-        <v>0.1921353167364543</v>
+        <v>0.123698200483858</v>
       </c>
       <c r="D5">
-        <v>0.00228266006777833</v>
+        <v>0.06340043861638378</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.424410950333794</v>
+        <v>0.4837213220663088</v>
       </c>
       <c r="G5">
-        <v>0.0008541071837109843</v>
+        <v>0.4039983802184324</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3605410704486687</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09896369083200796</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3943221178695282</v>
+        <v>0.8395226541746865</v>
       </c>
       <c r="L5">
-        <v>0.191429192612091</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.771231448310971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.80480494551739</v>
+        <v>0.7855309355346947</v>
       </c>
       <c r="C6">
-        <v>0.190842431240938</v>
+        <v>0.1229971379383841</v>
       </c>
       <c r="D6">
-        <v>0.002276801095987491</v>
+        <v>0.06315464898545287</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.418005903711929</v>
+        <v>0.4833359428523778</v>
       </c>
       <c r="G6">
-        <v>0.0008544587904293616</v>
+        <v>0.4040427207356601</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3609329463703617</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09894034488056391</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3915468487787734</v>
+        <v>0.8335488612152915</v>
       </c>
       <c r="L6">
-        <v>0.1905176103241715</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.766499925135506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.886837587781116</v>
+        <v>0.825234608165573</v>
       </c>
       <c r="C7">
-        <v>0.1998260057089141</v>
+        <v>0.1278623851715963</v>
       </c>
       <c r="D7">
-        <v>0.002317840744435085</v>
+        <v>0.06486007284205897</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.462815842282438</v>
+        <v>0.48613206987973</v>
       </c>
       <c r="G7">
-        <v>0.0008520312908734627</v>
+        <v>0.403856574144406</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3582859796939175</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09911115994541575</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4108568511297648</v>
+        <v>0.8750244783861092</v>
       </c>
       <c r="L7">
-        <v>0.1968703868597217</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.799604710643408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.255112351595528</v>
+        <v>1.001010949424</v>
       </c>
       <c r="C8">
-        <v>0.239764785913124</v>
+        <v>0.1493209189439284</v>
       </c>
       <c r="D8">
-        <v>0.002509291503275612</v>
+        <v>0.07237287352518962</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.669861449111707</v>
+        <v>0.5016011354360117</v>
       </c>
       <c r="G8">
-        <v>0.0008416325972048204</v>
+        <v>0.4061787921473368</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.3484738404808354</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1000904113282282</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4973548595892794</v>
+        <v>1.058432322566233</v>
       </c>
       <c r="L8">
-        <v>0.225579394340329</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.952652661364993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.00608309595907</v>
+        <v>1.348966350316886</v>
       </c>
       <c r="C9">
-        <v>0.3197987296619544</v>
+        <v>0.1914833210796587</v>
       </c>
       <c r="D9">
-        <v>0.002935271765584169</v>
+        <v>0.08708768607964856</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.115728011983094</v>
+        <v>0.5445429811747573</v>
       </c>
       <c r="G9">
-        <v>0.0008222693541178818</v>
+        <v>0.423409219624034</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3365637063989197</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1029111173764043</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6730407667946352</v>
+        <v>1.420674941350882</v>
       </c>
       <c r="L9">
-        <v>0.2848096788244163</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.282698648041134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.582074986244436</v>
+        <v>1.607856088448017</v>
       </c>
       <c r="C10">
-        <v>0.3803525768690861</v>
+        <v>0.2226394092401023</v>
       </c>
       <c r="D10">
-        <v>0.003294972151160813</v>
+        <v>0.09791931750591942</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.474447062684249</v>
+        <v>0.5851578508767687</v>
       </c>
       <c r="G10">
-        <v>0.0008085663464844654</v>
+        <v>0.4451979534958639</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3329091931296659</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1056281049482735</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8073693672639024</v>
+        <v>1.68964865804719</v>
       </c>
       <c r="L10">
-        <v>0.3306570927094867</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.5486634423347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.851084369792432</v>
+        <v>1.726642373865644</v>
       </c>
       <c r="C11">
-        <v>0.4084630045950917</v>
+        <v>0.236883798462955</v>
       </c>
       <c r="D11">
-        <v>0.003473237731174805</v>
+        <v>0.1028592467342051</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.646138274738576</v>
+        <v>0.6059344564816271</v>
       </c>
       <c r="G11">
-        <v>0.0008024199661392087</v>
+        <v>0.4574296814695202</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3325039533777527</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1070282785641865</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8700166066300454</v>
+        <v>1.812933637470678</v>
       </c>
       <c r="L11">
-        <v>0.3521585951165207</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.676087931498458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.954118197019852</v>
+        <v>1.77179701082909</v>
       </c>
       <c r="C12">
-        <v>0.4192062749267507</v>
+        <v>0.2422908824158583</v>
       </c>
       <c r="D12">
-        <v>0.00354330839995054</v>
+        <v>0.1047323790383103</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.712541880115594</v>
+        <v>0.6141628411317726</v>
       </c>
       <c r="G12">
-        <v>0.0008001025751543174</v>
+        <v>0.4624257215662197</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3325450075671625</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1075843898525122</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8939987440567734</v>
+        <v>1.859779186250137</v>
       </c>
       <c r="L12">
-        <v>0.3604065201161859</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.725392346788439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.931873391648594</v>
+        <v>1.762064014804253</v>
       </c>
       <c r="C13">
-        <v>0.4168878398847369</v>
+        <v>0.2411257429930913</v>
       </c>
       <c r="D13">
-        <v>0.003528095089803784</v>
+        <v>0.1043288442621062</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.698176115461166</v>
+        <v>0.6123741660735575</v>
       </c>
       <c r="G13">
-        <v>0.0008006012588917006</v>
+        <v>0.4613330265716655</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.3325272845560079</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1074634303340432</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8888215961761858</v>
+        <v>1.849682582630436</v>
       </c>
       <c r="L13">
-        <v>0.3586252539548695</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.714724817707221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.859536667137661</v>
+        <v>1.730353647821488</v>
       </c>
       <c r="C14">
-        <v>0.4093447792121196</v>
+        <v>0.2373283642600228</v>
       </c>
       <c r="D14">
-        <v>0.003478948134693738</v>
+        <v>0.1030132964507828</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.65157251092387</v>
+        <v>0.6066040013003828</v>
       </c>
       <c r="G14">
-        <v>0.0008022291252012259</v>
+        <v>0.4578332268796572</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3325033501180457</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1070734971360281</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8719842097170698</v>
+        <v>1.816784276529006</v>
       </c>
       <c r="L14">
-        <v>0.3528349570482732</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.680122383888715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.815385273364711</v>
+        <v>1.710953473716586</v>
       </c>
       <c r="C15">
-        <v>0.4047378123375722</v>
+        <v>0.2350041456728462</v>
       </c>
       <c r="D15">
-        <v>0.003449193391708683</v>
+        <v>0.1022078308190828</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.62321241996105</v>
+        <v>0.6031175146324799</v>
       </c>
       <c r="G15">
-        <v>0.0008032274800374989</v>
+        <v>0.4557378698985985</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3325144466028576</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1068380965792457</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8617057436124753</v>
+        <v>1.796654811956955</v>
       </c>
       <c r="L15">
-        <v>0.3493024197834131</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.659068338548465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.564648522100867</v>
+        <v>1.600115807290393</v>
       </c>
       <c r="C16">
-        <v>0.3785282784068613</v>
+        <v>0.2217101727316617</v>
       </c>
       <c r="D16">
-        <v>0.003283654119246915</v>
+        <v>0.09759679114588238</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.463411452379546</v>
+        <v>0.5838488496698133</v>
       </c>
       <c r="G16">
-        <v>0.0008089695801490205</v>
+        <v>0.4444478207118721</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3329621233218347</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1055400937169217</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8033093204663544</v>
+        <v>1.68161260116625</v>
       </c>
       <c r="L16">
-        <v>0.3292659784626721</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.540475890137486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.412727916279721</v>
+        <v>1.532399071601475</v>
       </c>
       <c r="C17">
-        <v>0.3626057262488303</v>
+        <v>0.2135749248705281</v>
       </c>
       <c r="D17">
-        <v>0.003186152409521803</v>
+        <v>0.0947717507018595</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.367668787585473</v>
+        <v>0.5726379610932142</v>
       </c>
       <c r="G17">
-        <v>0.0008125128623638507</v>
+        <v>0.4381369155421737</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3335681879619727</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.104787410556014</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7679048082598854</v>
+        <v>1.611293880534646</v>
       </c>
       <c r="L17">
-        <v>0.3171483037143048</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.469456649438072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.325994206436746</v>
+        <v>1.493544104825901</v>
       </c>
       <c r="C18">
-        <v>0.3534994379828618</v>
+        <v>0.2089022781775753</v>
       </c>
       <c r="D18">
-        <v>0.00313141756053259</v>
+        <v>0.09314800035740944</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.313390031093775</v>
+        <v>0.5664043844735787</v>
       </c>
       <c r="G18">
-        <v>0.0008145592317759568</v>
+        <v>0.4347234457595164</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3340342318609402</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1043697912118304</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7476835698263216</v>
+        <v>1.570933977342349</v>
       </c>
       <c r="L18">
-        <v>0.3102384118377444</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.429205639144755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.296734193351938</v>
+        <v>1.480403829926473</v>
       </c>
       <c r="C19">
-        <v>0.3504246338686698</v>
+        <v>0.207321241410142</v>
       </c>
       <c r="D19">
-        <v>0.003113103653313409</v>
+        <v>0.09259840216076043</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.295143146869606</v>
+        <v>0.5643297919772792</v>
       </c>
       <c r="G19">
-        <v>0.0008152536039181335</v>
+        <v>0.4336039778219174</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3342117981316761</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1042309556226364</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.740860412283908</v>
+        <v>1.557282721867693</v>
       </c>
       <c r="L19">
-        <v>0.3079087538102101</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.415676340393318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.428832057268608</v>
+        <v>1.539597727741494</v>
       </c>
       <c r="C20">
-        <v>0.3642952147302765</v>
+        <v>0.2144402403897914</v>
       </c>
       <c r="D20">
-        <v>0.003196389295133883</v>
+        <v>0.09507235855002705</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.377777878245524</v>
+        <v>0.5738089567524867</v>
       </c>
       <c r="G20">
-        <v>0.0008121348246597546</v>
+        <v>0.4387861123855998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3334914196063181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1048659353423176</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.771658673864323</v>
+        <v>1.618770385437557</v>
       </c>
       <c r="L20">
-        <v>0.318431964989486</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.476954077248422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.880750694923677</v>
+        <v>1.739662836096841</v>
       </c>
       <c r="C21">
-        <v>0.4115575373256775</v>
+        <v>0.2384433690092465</v>
       </c>
       <c r="D21">
-        <v>0.003493310073245048</v>
+        <v>0.1033996314445673</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.665222042631541</v>
+        <v>0.6082887983081093</v>
       </c>
       <c r="G21">
-        <v>0.0008017507277822133</v>
+        <v>0.4588510643313839</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3325049864392895</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1071873076149998</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8769224075491451</v>
+        <v>1.826442733588607</v>
       </c>
       <c r="L21">
-        <v>0.3545327256706798</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.690256337576457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.182990515098197</v>
+        <v>1.87143847954431</v>
       </c>
       <c r="C22">
-        <v>0.4430298567315276</v>
+        <v>0.2542083031781743</v>
       </c>
       <c r="D22">
-        <v>0.003702595357484739</v>
+        <v>0.1088568536257313</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.861264368076689</v>
+        <v>0.632941624338649</v>
       </c>
       <c r="G22">
-        <v>0.0007950217077548003</v>
+        <v>0.4741031987468602</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3330012311608073</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1088566623922915</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9472488166084929</v>
+        <v>1.963116513378509</v>
       </c>
       <c r="L22">
-        <v>0.3787503890534936</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.835860930680312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.020990935099007</v>
+        <v>1.801004446259498</v>
       </c>
       <c r="C23">
-        <v>0.4261727443337122</v>
+        <v>0.2457861823750278</v>
       </c>
       <c r="D23">
-        <v>0.003589327308038737</v>
+        <v>0.1059426285692098</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.755824605543125</v>
+        <v>0.6195796202650428</v>
       </c>
       <c r="G23">
-        <v>0.0007986087221562436</v>
+        <v>0.4657564279110034</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3326271519678414</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1079509424498539</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9095606130723013</v>
+        <v>1.890074948371023</v>
       </c>
       <c r="L23">
-        <v>0.3657631824951153</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.757535968601431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.421549494906571</v>
+        <v>1.53634297967983</v>
       </c>
       <c r="C24">
-        <v>0.3635312493844083</v>
+        <v>0.2140490176971923</v>
       </c>
       <c r="D24">
-        <v>0.003191757120898586</v>
+        <v>0.09493645253722605</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.373205187799471</v>
+        <v>0.5732788924099168</v>
       </c>
       <c r="G24">
-        <v>0.00081230570634641</v>
+        <v>0.4384919438635109</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.333525761277798</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1048303873968415</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7699611388364218</v>
+        <v>1.61539005005352</v>
       </c>
       <c r="L24">
-        <v>0.3178514460153252</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.473562696333246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.799194763220669</v>
+        <v>1.254361883483966</v>
       </c>
       <c r="C25">
-        <v>0.2978956547575109</v>
+        <v>0.1800557686216706</v>
       </c>
       <c r="D25">
-        <v>0.002813145789686722</v>
+        <v>0.08310576612611698</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.990179091311518</v>
+        <v>0.5314397589463198</v>
       </c>
       <c r="G25">
-        <v>0.0008274076229674441</v>
+        <v>0.4172521287494533</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3389388708728376</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1020423482334536</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6247134154158687</v>
+        <v>1.322278061082898</v>
       </c>
       <c r="L25">
-        <v>0.268419754659817</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.189701408773175</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.048814511988638</v>
+        <v>0.390674242509391</v>
       </c>
       <c r="C2">
-        <v>0.1551362478333971</v>
+        <v>0.05422536076038398</v>
       </c>
       <c r="D2">
-        <v>0.0744061964710383</v>
+        <v>0.03938223372932015</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5065977417730991</v>
+        <v>0.7997251448389093</v>
       </c>
       <c r="G2">
-        <v>0.4076172675623866</v>
+        <v>0.6436838506097615</v>
       </c>
       <c r="H2">
-        <v>0.3462896821527011</v>
+        <v>0.7644538316676517</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.108257794322327</v>
+        <v>0.3682658822932865</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9103878460403223</v>
+        <v>0.34940106566998</v>
       </c>
       <c r="C3">
-        <v>0.1382733777874847</v>
+        <v>0.04868489409926724</v>
       </c>
       <c r="D3">
-        <v>0.06850693956094034</v>
+        <v>0.03721867884566166</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.493027127869567</v>
+        <v>0.8040265888460212</v>
       </c>
       <c r="G3">
-        <v>0.4043707861593262</v>
+        <v>0.6498349275094171</v>
       </c>
       <c r="H3">
-        <v>0.353164233978184</v>
+        <v>0.7723479790848273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9639156936698328</v>
+        <v>0.3241280516861309</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8256994495143317</v>
+        <v>0.3241034189544791</v>
       </c>
       <c r="C4">
-        <v>0.1279193032823258</v>
+        <v>0.04526212056113366</v>
       </c>
       <c r="D4">
-        <v>0.06488002010057414</v>
+        <v>0.03588131487120449</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4861664405192769</v>
+        <v>0.8072886745315131</v>
       </c>
       <c r="G4">
-        <v>0.4038560549419472</v>
+        <v>0.6541833909715749</v>
       </c>
       <c r="H4">
-        <v>0.3582560019479715</v>
+        <v>0.777627473804138</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8755099511699314</v>
+        <v>0.2970092953288486</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7912483560686212</v>
+        <v>0.3138059892730496</v>
       </c>
       <c r="C5">
-        <v>0.123698200483858</v>
+        <v>0.04386211876133927</v>
       </c>
       <c r="D5">
-        <v>0.06340043861638378</v>
+        <v>0.03533412012694725</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4837213220663088</v>
+        <v>0.8087739092059678</v>
       </c>
       <c r="G5">
-        <v>0.4039983802184324</v>
+        <v>0.6560988264466303</v>
       </c>
       <c r="H5">
-        <v>0.3605410704486687</v>
+        <v>0.7798875928337381</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8395226541746865</v>
+        <v>0.2859541299455941</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7855309355346947</v>
+        <v>0.3120968205477936</v>
       </c>
       <c r="C6">
-        <v>0.1229971379383841</v>
+        <v>0.04362933770096333</v>
       </c>
       <c r="D6">
-        <v>0.06315464898545287</v>
+        <v>0.03524312662468532</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4833359428523778</v>
+        <v>0.8090299406456651</v>
       </c>
       <c r="G6">
-        <v>0.4040427207356601</v>
+        <v>0.6564255338128646</v>
       </c>
       <c r="H6">
-        <v>0.3609329463703617</v>
+        <v>0.7802694461752608</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8335488612152915</v>
+        <v>0.2841181971145943</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.825234608165573</v>
+        <v>0.3239644967979984</v>
       </c>
       <c r="C7">
-        <v>0.1278623851715963</v>
+        <v>0.04524326059227235</v>
       </c>
       <c r="D7">
-        <v>0.06486007284205897</v>
+        <v>0.03587394410090639</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.48613206987973</v>
+        <v>0.8073080739827887</v>
       </c>
       <c r="G7">
-        <v>0.403856574144406</v>
+        <v>0.6542086430456564</v>
       </c>
       <c r="H7">
-        <v>0.3582859796939175</v>
+        <v>0.7776575145952265</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8750244783861092</v>
+        <v>0.2968602172929309</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.001010949424</v>
+        <v>0.3764343167666482</v>
       </c>
       <c r="C8">
-        <v>0.1493209189439284</v>
+        <v>0.05231938251074553</v>
       </c>
       <c r="D8">
-        <v>0.07237287352518962</v>
+        <v>0.03863811604720979</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5016011354360117</v>
+        <v>0.8010792509258238</v>
       </c>
       <c r="G8">
-        <v>0.4061787921473368</v>
+        <v>0.6456858786288535</v>
       </c>
       <c r="H8">
-        <v>0.3484738404808354</v>
+        <v>0.7670859399584771</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.058432322566233</v>
+        <v>0.3530511462171262</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.348966350316886</v>
+        <v>0.4796645823945482</v>
       </c>
       <c r="C9">
-        <v>0.1914833210796587</v>
+        <v>0.0660276655693508</v>
       </c>
       <c r="D9">
-        <v>0.08708768607964856</v>
+        <v>0.04398636047582727</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5445429811747573</v>
+        <v>0.7938034284486974</v>
       </c>
       <c r="G9">
-        <v>0.423409219624034</v>
+        <v>0.6335249151098594</v>
       </c>
       <c r="H9">
-        <v>0.3365637063989197</v>
+        <v>0.7497893180849786</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.420674941350882</v>
+        <v>0.4630842188480528</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.607856088448017</v>
+        <v>0.5557023852577174</v>
       </c>
       <c r="C10">
-        <v>0.2226394092401023</v>
+        <v>0.07599488843897007</v>
       </c>
       <c r="D10">
-        <v>0.09791931750591942</v>
+        <v>0.04787013156047237</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5851578508767687</v>
+        <v>0.7914859573966169</v>
       </c>
       <c r="G10">
-        <v>0.4451979534958639</v>
+        <v>0.6273881353054094</v>
       </c>
       <c r="H10">
-        <v>0.3329091931296659</v>
+        <v>0.7391790820247763</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.68964865804719</v>
+        <v>0.5438180604407421</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.726642373865644</v>
+        <v>0.5903343865468287</v>
       </c>
       <c r="C11">
-        <v>0.236883798462955</v>
+        <v>0.08050627471426708</v>
       </c>
       <c r="D11">
-        <v>0.1028592467342051</v>
+        <v>0.04962676991370074</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6059344564816271</v>
+        <v>0.7910929495405767</v>
       </c>
       <c r="G11">
-        <v>0.4574296814695202</v>
+        <v>0.6252087969555902</v>
       </c>
       <c r="H11">
-        <v>0.3325039533777527</v>
+        <v>0.7348085641337576</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.812933637470678</v>
+        <v>0.5805207269119421</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.77179701082909</v>
+        <v>0.6034543429043424</v>
       </c>
       <c r="C12">
-        <v>0.2422908824158583</v>
+        <v>0.08221129930640814</v>
       </c>
       <c r="D12">
-        <v>0.1047323790383103</v>
+        <v>0.05029047748327997</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6141628411317726</v>
+        <v>0.7910394943906525</v>
       </c>
       <c r="G12">
-        <v>0.4624257215662197</v>
+        <v>0.6244719787945172</v>
       </c>
       <c r="H12">
-        <v>0.3325450075671625</v>
+        <v>0.7332192314507324</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.859779186250137</v>
+        <v>0.5944153426104322</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.762064014804253</v>
+        <v>0.600628485382714</v>
       </c>
       <c r="C13">
-        <v>0.2411257429930913</v>
+        <v>0.08184424134724111</v>
       </c>
       <c r="D13">
-        <v>0.1043288442621062</v>
+        <v>0.0501476032218946</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6123741660735575</v>
+        <v>0.7910467608491203</v>
       </c>
       <c r="G13">
-        <v>0.4613330265716655</v>
+        <v>0.6246267255791764</v>
       </c>
       <c r="H13">
-        <v>0.3325272845560079</v>
+        <v>0.7335585996721932</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.849682582630436</v>
+        <v>0.5914230693223601</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.730353647821488</v>
+        <v>0.5914136643432641</v>
       </c>
       <c r="C14">
-        <v>0.2373283642600228</v>
+        <v>0.0806466154268719</v>
       </c>
       <c r="D14">
-        <v>0.1030132964507828</v>
+        <v>0.04968140368735163</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6066040013003828</v>
+        <v>0.7910866387989017</v>
       </c>
       <c r="G14">
-        <v>0.4578332268796572</v>
+        <v>0.6251464035273244</v>
       </c>
       <c r="H14">
-        <v>0.3325033501180457</v>
+        <v>0.7346764917482602</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.816784276529006</v>
+        <v>0.5816639260661418</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.710953473716586</v>
+        <v>0.5857700316316539</v>
       </c>
       <c r="C15">
-        <v>0.2350041456728462</v>
+        <v>0.07991259807727147</v>
       </c>
       <c r="D15">
-        <v>0.1022078308190828</v>
+        <v>0.04939564737705382</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6031175146324799</v>
+        <v>0.7911234934212601</v>
       </c>
       <c r="G15">
-        <v>0.4557378698985985</v>
+        <v>0.6254762519184851</v>
       </c>
       <c r="H15">
-        <v>0.3325144466028576</v>
+        <v>0.7353697902471055</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.796654811956955</v>
+        <v>0.5756856480053898</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600115807290393</v>
+        <v>0.5534399075717999</v>
       </c>
       <c r="C16">
-        <v>0.2217101727316617</v>
+        <v>0.07569959508747104</v>
       </c>
       <c r="D16">
-        <v>0.09759679114588238</v>
+        <v>0.04775512430211393</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5838488496698133</v>
+        <v>0.7915249712984433</v>
       </c>
       <c r="G16">
-        <v>0.4444478207118721</v>
+        <v>0.6275429157379193</v>
       </c>
       <c r="H16">
-        <v>0.3329621233218347</v>
+        <v>0.7394738924248543</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.68161260116625</v>
+        <v>0.5414189379648633</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.532399071601475</v>
+        <v>0.5336168487352495</v>
       </c>
       <c r="C17">
-        <v>0.2135749248705281</v>
+        <v>0.07310917822303509</v>
       </c>
       <c r="D17">
-        <v>0.0947717507018595</v>
+        <v>0.04674609912182603</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5726379610932142</v>
+        <v>0.7919408233522702</v>
       </c>
       <c r="G17">
-        <v>0.4381369155421737</v>
+        <v>0.6289678603771023</v>
       </c>
       <c r="H17">
-        <v>0.3335681879619727</v>
+        <v>0.7421085210468874</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.611293880534646</v>
+        <v>0.5203910298473602</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.493544104825901</v>
+        <v>0.5222191331659189</v>
       </c>
       <c r="C18">
-        <v>0.2089022781775753</v>
+        <v>0.07161710129318521</v>
       </c>
       <c r="D18">
-        <v>0.09314800035740944</v>
+        <v>0.04616478539729485</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5664043844735787</v>
+        <v>0.7922422307694958</v>
       </c>
       <c r="G18">
-        <v>0.4347234457595164</v>
+        <v>0.629845060878381</v>
       </c>
       <c r="H18">
-        <v>0.3340342318609402</v>
+        <v>0.7436668172524321</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.570933977342349</v>
+        <v>0.5082941450152987</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480403829926473</v>
+        <v>0.5183607611832031</v>
       </c>
       <c r="C19">
-        <v>0.207321241410142</v>
+        <v>0.07111154460844205</v>
       </c>
       <c r="D19">
-        <v>0.09259840216076043</v>
+        <v>0.04596780076087725</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5643297919772792</v>
+        <v>0.7923549598145243</v>
       </c>
       <c r="G19">
-        <v>0.4336039778219174</v>
+        <v>0.6301519482616555</v>
       </c>
       <c r="H19">
-        <v>0.3342117981316761</v>
+        <v>0.7442017994781338</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.557282721867693</v>
+        <v>0.5041979870999853</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.539597727741494</v>
+        <v>0.5357266383466879</v>
       </c>
       <c r="C20">
-        <v>0.2144402403897914</v>
+        <v>0.0733851542526196</v>
       </c>
       <c r="D20">
-        <v>0.09507235855002705</v>
+        <v>0.04685361009511269</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5738089567524867</v>
+        <v>0.7918901135466925</v>
       </c>
       <c r="G20">
-        <v>0.4387861123855998</v>
+        <v>0.62881020726158</v>
       </c>
       <c r="H20">
-        <v>0.3334914196063181</v>
+        <v>0.7418236167960117</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.618770385437557</v>
+        <v>0.5226297166686038</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.739662836096841</v>
+        <v>0.5941201332717299</v>
       </c>
       <c r="C21">
-        <v>0.2384433690092465</v>
+        <v>0.08099847835771357</v>
       </c>
       <c r="D21">
-        <v>0.1033996314445673</v>
+        <v>0.04981837863095251</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6082887983081093</v>
+        <v>0.7910723351400009</v>
       </c>
       <c r="G21">
-        <v>0.4588510643313839</v>
+        <v>0.6249913578295008</v>
       </c>
       <c r="H21">
-        <v>0.3325049864392895</v>
+        <v>0.7343463562366281</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.826442733588607</v>
+        <v>0.5845305324730532</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.87143847954431</v>
+        <v>0.6323159009121468</v>
       </c>
       <c r="C22">
-        <v>0.2542083031781743</v>
+        <v>0.08595472985801678</v>
       </c>
       <c r="D22">
-        <v>0.1088568536257313</v>
+        <v>0.05174730437641983</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.632941624338649</v>
+        <v>0.7910938810094947</v>
       </c>
       <c r="G22">
-        <v>0.4741031987468602</v>
+        <v>0.6230112576416218</v>
       </c>
       <c r="H22">
-        <v>0.3330012311608073</v>
+        <v>0.7298424565133956</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.963116513378509</v>
+        <v>0.6249634052894919</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801004446259498</v>
+        <v>0.6119273064155948</v>
       </c>
       <c r="C23">
-        <v>0.2457861823750278</v>
+        <v>0.0833112911777647</v>
       </c>
       <c r="D23">
-        <v>0.1059426285692098</v>
+        <v>0.05071861143703416</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6195796202650428</v>
+        <v>0.7910314125810345</v>
       </c>
       <c r="G23">
-        <v>0.4657564279110034</v>
+        <v>0.6240207524871124</v>
       </c>
       <c r="H23">
-        <v>0.3326271519678414</v>
+        <v>0.7322112032885855</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.890074948371023</v>
+        <v>0.6033858784408892</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.53634297967983</v>
+        <v>0.5347728060896202</v>
       </c>
       <c r="C24">
-        <v>0.2140490176971923</v>
+        <v>0.07326039424326325</v>
       </c>
       <c r="D24">
-        <v>0.09493645253722605</v>
+        <v>0.04680500815535993</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5732788924099168</v>
+        <v>0.791912845320816</v>
       </c>
       <c r="G24">
-        <v>0.4384919438635109</v>
+        <v>0.6288813016571737</v>
       </c>
       <c r="H24">
-        <v>0.333525761277798</v>
+        <v>0.7419522861605827</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.61539005005352</v>
+        <v>0.5216176301826465</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.254361883483966</v>
+        <v>0.4517031184913094</v>
       </c>
       <c r="C25">
-        <v>0.1800557686216706</v>
+        <v>0.06233738850920645</v>
       </c>
       <c r="D25">
-        <v>0.08310576612611698</v>
+        <v>0.04254741605542023</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5314397589463198</v>
+        <v>0.7952412062761027</v>
       </c>
       <c r="G25">
-        <v>0.4172521287494533</v>
+        <v>0.6363250802329929</v>
       </c>
       <c r="H25">
-        <v>0.3389388708728376</v>
+        <v>0.7541004433392402</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.322278061082898</v>
+        <v>0.4333354016445412</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.390674242509391</v>
+        <v>1.048814511988553</v>
       </c>
       <c r="C2">
-        <v>0.05422536076038398</v>
+        <v>0.1551362478333971</v>
       </c>
       <c r="D2">
-        <v>0.03938223372932015</v>
+        <v>0.0744061964710383</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7997251448389093</v>
+        <v>0.5065977417730991</v>
       </c>
       <c r="G2">
-        <v>0.6436838506097615</v>
+        <v>0.4076172675623795</v>
       </c>
       <c r="H2">
-        <v>0.7644538316676517</v>
+        <v>0.3462896821527011</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3682658822932865</v>
+        <v>1.108257794322355</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.34940106566998</v>
+        <v>0.9103878460401802</v>
       </c>
       <c r="C3">
-        <v>0.04868489409926724</v>
+        <v>0.1382733777873426</v>
       </c>
       <c r="D3">
-        <v>0.03721867884566166</v>
+        <v>0.06850693956093323</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8040265888460212</v>
+        <v>0.4930271278695528</v>
       </c>
       <c r="G3">
-        <v>0.6498349275094171</v>
+        <v>0.4043707861593262</v>
       </c>
       <c r="H3">
-        <v>0.7723479790848273</v>
+        <v>0.3531642339783048</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3241280516861309</v>
+        <v>0.9639156936699464</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3241034189544791</v>
+        <v>0.8256994495144454</v>
       </c>
       <c r="C4">
-        <v>0.04526212056113366</v>
+        <v>0.1279193032823258</v>
       </c>
       <c r="D4">
-        <v>0.03588131487120449</v>
+        <v>0.06488002010069494</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8072886745315131</v>
+        <v>0.486166440519284</v>
       </c>
       <c r="G4">
-        <v>0.6541833909715749</v>
+        <v>0.4038560549419046</v>
       </c>
       <c r="H4">
-        <v>0.777627473804138</v>
+        <v>0.3582560019479644</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2970092953288486</v>
+        <v>0.8755099511699314</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3138059892730496</v>
+        <v>0.7912483560685075</v>
       </c>
       <c r="C5">
-        <v>0.04386211876133927</v>
+        <v>0.1236982004841281</v>
       </c>
       <c r="D5">
-        <v>0.03533412012694725</v>
+        <v>0.06340043861635536</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8087739092059678</v>
+        <v>0.4837213220663088</v>
       </c>
       <c r="G5">
-        <v>0.6560988264466303</v>
+        <v>0.403998380218539</v>
       </c>
       <c r="H5">
-        <v>0.7798875928337381</v>
+        <v>0.3605410704486758</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2859541299455941</v>
+        <v>0.8395226541745444</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3120968205477936</v>
+        <v>0.7855309355347515</v>
       </c>
       <c r="C6">
-        <v>0.04362933770096333</v>
+        <v>0.1229971379383841</v>
       </c>
       <c r="D6">
-        <v>0.03524312662468532</v>
+        <v>0.06315464898533918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8090299406456651</v>
+        <v>0.4833359428523423</v>
       </c>
       <c r="G6">
-        <v>0.6564255338128646</v>
+        <v>0.4040427207355606</v>
       </c>
       <c r="H6">
-        <v>0.7802694461752608</v>
+        <v>0.3609329463703332</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2841181971145943</v>
+        <v>0.8335488612154052</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3239644967979984</v>
+        <v>0.8252346081656867</v>
       </c>
       <c r="C7">
-        <v>0.04524326059227235</v>
+        <v>0.1278623851712126</v>
       </c>
       <c r="D7">
-        <v>0.03587394410090639</v>
+        <v>0.06486007284206607</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8073080739827887</v>
+        <v>0.4861320698797584</v>
       </c>
       <c r="G7">
-        <v>0.6542086430456564</v>
+        <v>0.4038565741443421</v>
       </c>
       <c r="H7">
-        <v>0.7776575145952265</v>
+        <v>0.3582859796939175</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2968602172929309</v>
+        <v>0.8750244783860808</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3764343167666482</v>
+        <v>1.001010949424057</v>
       </c>
       <c r="C8">
-        <v>0.05231938251074553</v>
+        <v>0.1493209189439284</v>
       </c>
       <c r="D8">
-        <v>0.03863811604720979</v>
+        <v>0.0723728735251683</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8010792509258238</v>
+        <v>0.5016011354360117</v>
       </c>
       <c r="G8">
-        <v>0.6456858786288535</v>
+        <v>0.4061787921472089</v>
       </c>
       <c r="H8">
-        <v>0.7670859399584771</v>
+        <v>0.3484738404807217</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3530511462171262</v>
+        <v>1.05843232256629</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4796645823945482</v>
+        <v>1.348966350316687</v>
       </c>
       <c r="C9">
-        <v>0.0660276655693508</v>
+        <v>0.1914833210795308</v>
       </c>
       <c r="D9">
-        <v>0.04398636047582727</v>
+        <v>0.08708768607944961</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7938034284486974</v>
+        <v>0.5445429811747573</v>
       </c>
       <c r="G9">
-        <v>0.6335249151098594</v>
+        <v>0.4234092196240624</v>
       </c>
       <c r="H9">
-        <v>0.7497893180849786</v>
+        <v>0.3365637063989197</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4630842188480528</v>
+        <v>1.420674941350882</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5557023852577174</v>
+        <v>1.607856088448045</v>
       </c>
       <c r="C10">
-        <v>0.07599488843897007</v>
+        <v>0.2226394092400028</v>
       </c>
       <c r="D10">
-        <v>0.04787013156047237</v>
+        <v>0.09791931750603311</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7914859573966169</v>
+        <v>0.5851578508767545</v>
       </c>
       <c r="G10">
-        <v>0.6273881353054094</v>
+        <v>0.4451979534959207</v>
       </c>
       <c r="H10">
-        <v>0.7391790820247763</v>
+        <v>0.3329091931296659</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5438180604407421</v>
+        <v>1.689648658047076</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5903343865468287</v>
+        <v>1.726642373865673</v>
       </c>
       <c r="C11">
-        <v>0.08050627471426708</v>
+        <v>0.2368837984631966</v>
       </c>
       <c r="D11">
-        <v>0.04962676991370074</v>
+        <v>0.1028592467345888</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7910929495405767</v>
+        <v>0.6059344564816129</v>
       </c>
       <c r="G11">
-        <v>0.6252087969555902</v>
+        <v>0.4574296814694492</v>
       </c>
       <c r="H11">
-        <v>0.7348085641337576</v>
+        <v>0.3325039533777527</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5805207269119421</v>
+        <v>1.812933637470735</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6034543429043424</v>
+        <v>1.771797010828976</v>
       </c>
       <c r="C12">
-        <v>0.08221129930640814</v>
+        <v>0.2422908824156309</v>
       </c>
       <c r="D12">
-        <v>0.05029047748327997</v>
+        <v>0.1047323790382606</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7910394943906525</v>
+        <v>0.6141628411317583</v>
       </c>
       <c r="G12">
-        <v>0.6244719787945172</v>
+        <v>0.4624257215662197</v>
       </c>
       <c r="H12">
-        <v>0.7332192314507324</v>
+        <v>0.332545007567262</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5944153426104322</v>
+        <v>1.85977918625025</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.600628485382714</v>
+        <v>1.76206401480411</v>
       </c>
       <c r="C13">
-        <v>0.08184424134724111</v>
+        <v>0.241125742993006</v>
       </c>
       <c r="D13">
-        <v>0.0501476032218946</v>
+        <v>0.1043288442621346</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7910467608491203</v>
+        <v>0.6123741660735647</v>
       </c>
       <c r="G13">
-        <v>0.6246267255791764</v>
+        <v>0.4613330265716371</v>
       </c>
       <c r="H13">
-        <v>0.7335585996721932</v>
+        <v>0.3325272845559937</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5914230693223601</v>
+        <v>1.849682582630294</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5914136643432641</v>
+        <v>1.73035364782163</v>
       </c>
       <c r="C14">
-        <v>0.0806466154268719</v>
+        <v>0.237328364260236</v>
       </c>
       <c r="D14">
-        <v>0.04968140368735163</v>
+        <v>0.1030132964508397</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7910866387989017</v>
+        <v>0.6066040013003544</v>
       </c>
       <c r="G14">
-        <v>0.6251464035273244</v>
+        <v>0.4578332268797283</v>
       </c>
       <c r="H14">
-        <v>0.7346764917482602</v>
+        <v>0.3325033501179462</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5816639260661418</v>
+        <v>1.816784276529035</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5857700316316539</v>
+        <v>1.710953473716387</v>
       </c>
       <c r="C15">
-        <v>0.07991259807727147</v>
+        <v>0.2350041456726473</v>
       </c>
       <c r="D15">
-        <v>0.04939564737705382</v>
+        <v>0.1022078308190686</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7911234934212601</v>
+        <v>0.6031175146324443</v>
       </c>
       <c r="G15">
-        <v>0.6254762519184851</v>
+        <v>0.4557378698986412</v>
       </c>
       <c r="H15">
-        <v>0.7353697902471055</v>
+        <v>0.3325144466028576</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5756856480053898</v>
+        <v>1.796654811956984</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5534399075717999</v>
+        <v>1.600115807290507</v>
       </c>
       <c r="C16">
-        <v>0.07569959508747104</v>
+        <v>0.221710172731818</v>
       </c>
       <c r="D16">
-        <v>0.04775512430211393</v>
+        <v>0.09759679114569764</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7915249712984433</v>
+        <v>0.5838488496698133</v>
       </c>
       <c r="G16">
-        <v>0.6275429157379193</v>
+        <v>0.4444478207119431</v>
       </c>
       <c r="H16">
-        <v>0.7394738924248543</v>
+        <v>0.3329621233218347</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5414189379648633</v>
+        <v>1.681612601166165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5336168487352495</v>
+        <v>1.53239907160156</v>
       </c>
       <c r="C17">
-        <v>0.07310917822303509</v>
+        <v>0.2135749248706418</v>
       </c>
       <c r="D17">
-        <v>0.04674609912182603</v>
+        <v>0.09477175070191635</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7919408233522702</v>
+        <v>0.5726379610932142</v>
       </c>
       <c r="G17">
-        <v>0.6289678603771023</v>
+        <v>0.4381369155421453</v>
       </c>
       <c r="H17">
-        <v>0.7421085210468874</v>
+        <v>0.3335681879619727</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5203910298473602</v>
+        <v>1.61129388053476</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5222191331659189</v>
+        <v>1.493544104825787</v>
       </c>
       <c r="C18">
-        <v>0.07161710129318521</v>
+        <v>0.2089022781772343</v>
       </c>
       <c r="D18">
-        <v>0.04616478539729485</v>
+        <v>0.0931480003573526</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7922422307694958</v>
+        <v>0.5664043844735787</v>
       </c>
       <c r="G18">
-        <v>0.629845060878381</v>
+        <v>0.434723445759559</v>
       </c>
       <c r="H18">
-        <v>0.7436668172524321</v>
+        <v>0.3340342318609402</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5082941450152987</v>
+        <v>1.570933977342548</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5183607611832031</v>
+        <v>1.480403829926473</v>
       </c>
       <c r="C19">
-        <v>0.07111154460844205</v>
+        <v>0.2073212414095877</v>
       </c>
       <c r="D19">
-        <v>0.04596780076087725</v>
+        <v>0.09259840216086701</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7923549598145243</v>
+        <v>0.5643297919772792</v>
       </c>
       <c r="G19">
-        <v>0.6301519482616555</v>
+        <v>0.4336039778218748</v>
       </c>
       <c r="H19">
-        <v>0.7442017994781338</v>
+        <v>0.3342117981315624</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5041979870999853</v>
+        <v>1.557282721867693</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5357266383466879</v>
+        <v>1.539597727741324</v>
       </c>
       <c r="C20">
-        <v>0.0733851542526196</v>
+        <v>0.2144402403898056</v>
       </c>
       <c r="D20">
-        <v>0.04685361009511269</v>
+        <v>0.09507235854992757</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7918901135466925</v>
+        <v>0.5738089567524867</v>
       </c>
       <c r="G20">
-        <v>0.62881020726158</v>
+        <v>0.4387861123857135</v>
       </c>
       <c r="H20">
-        <v>0.7418236167960117</v>
+        <v>0.3334914196063181</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5226297166686038</v>
+        <v>1.618770385437472</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5941201332717299</v>
+        <v>1.739662836096983</v>
       </c>
       <c r="C21">
-        <v>0.08099847835771357</v>
+        <v>0.2384433690094028</v>
       </c>
       <c r="D21">
-        <v>0.04981837863095251</v>
+        <v>0.1033996314446171</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7910723351400009</v>
+        <v>0.6082887983081022</v>
       </c>
       <c r="G21">
-        <v>0.6249913578295008</v>
+        <v>0.4588510643314549</v>
       </c>
       <c r="H21">
-        <v>0.7343463562366281</v>
+        <v>0.3325049864392895</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5845305324730532</v>
+        <v>1.826442733588721</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6323159009121468</v>
+        <v>1.871438479544139</v>
       </c>
       <c r="C22">
-        <v>0.08595472985801678</v>
+        <v>0.2542083031779327</v>
       </c>
       <c r="D22">
-        <v>0.05174730437641983</v>
+        <v>0.1088568536258379</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7910938810094947</v>
+        <v>0.6329416243386703</v>
       </c>
       <c r="G22">
-        <v>0.6230112576416218</v>
+        <v>0.4741031987468176</v>
       </c>
       <c r="H22">
-        <v>0.7298424565133956</v>
+        <v>0.3330012311608215</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6249634052894919</v>
+        <v>1.963116513378594</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6119273064155948</v>
+        <v>1.801004446259384</v>
       </c>
       <c r="C23">
-        <v>0.0833112911777647</v>
+        <v>0.2457861823751273</v>
       </c>
       <c r="D23">
-        <v>0.05071861143703416</v>
+        <v>0.1059426285691387</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7910314125810345</v>
+        <v>0.6195796202650214</v>
       </c>
       <c r="G23">
-        <v>0.6240207524871124</v>
+        <v>0.4657564279109891</v>
       </c>
       <c r="H23">
-        <v>0.7322112032885855</v>
+        <v>0.3326271519677277</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6033858784408892</v>
+        <v>1.890074948371165</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5347728060896202</v>
+        <v>1.536342979679915</v>
       </c>
       <c r="C24">
-        <v>0.07326039424326325</v>
+        <v>0.2140490176972918</v>
       </c>
       <c r="D24">
-        <v>0.04680500815535993</v>
+        <v>0.09493645253714078</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.791912845320816</v>
+        <v>0.573278892409931</v>
       </c>
       <c r="G24">
-        <v>0.6288813016571737</v>
+        <v>0.4384919438634398</v>
       </c>
       <c r="H24">
-        <v>0.7419522861605827</v>
+        <v>0.333525761277798</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5216176301826465</v>
+        <v>1.615390050053662</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4517031184913094</v>
+        <v>1.25436188348408</v>
       </c>
       <c r="C25">
-        <v>0.06233738850920645</v>
+        <v>0.1800557686218838</v>
       </c>
       <c r="D25">
-        <v>0.04254741605542023</v>
+        <v>0.08310576612606724</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7952412062761027</v>
+        <v>0.5314397589463269</v>
       </c>
       <c r="G25">
-        <v>0.6363250802329929</v>
+        <v>0.4172521287495954</v>
       </c>
       <c r="H25">
-        <v>0.7541004433392402</v>
+        <v>0.3389388708729513</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4333354016445412</v>
+        <v>1.322278061082869</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.048814511988553</v>
+        <v>1.114531211924003</v>
       </c>
       <c r="C2">
-        <v>0.1551362478333971</v>
+        <v>0.1492068655870327</v>
       </c>
       <c r="D2">
-        <v>0.0744061964710383</v>
+        <v>0.1457649069467806</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5065977417730991</v>
+        <v>0.632437386943856</v>
       </c>
       <c r="G2">
-        <v>0.4076172675623795</v>
+        <v>0.3643350459575814</v>
       </c>
       <c r="H2">
-        <v>0.3462896821527011</v>
+        <v>0.006907307161846871</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007373971217107922</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3416137308983238</v>
       </c>
       <c r="K2">
-        <v>1.108257794322355</v>
+        <v>0.3862553008092604</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09100091895347617</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9701431862221739</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.274973605581863</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.434053566937294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9103878460401802</v>
+        <v>0.971197331197601</v>
       </c>
       <c r="C3">
-        <v>0.1382733777873426</v>
+        <v>0.1431148384089411</v>
       </c>
       <c r="D3">
-        <v>0.06850693956093323</v>
+        <v>0.1314630879582381</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4930271278695528</v>
+        <v>0.6218552942739635</v>
       </c>
       <c r="G3">
-        <v>0.4043707861593262</v>
+        <v>0.3622535008856929</v>
       </c>
       <c r="H3">
-        <v>0.3531642339783048</v>
+        <v>0.00891691556630092</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009244593723201966</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3447998876299323</v>
       </c>
       <c r="K3">
-        <v>0.9639156936699464</v>
+        <v>0.3912874713143069</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08726675631759306</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8497786799864286</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2447985854796286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.436046023345952</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8256994495144454</v>
+        <v>0.8828960943551181</v>
       </c>
       <c r="C4">
-        <v>0.1279193032823258</v>
+        <v>0.1393909214456315</v>
       </c>
       <c r="D4">
-        <v>0.06488002010069494</v>
+        <v>0.1227113453900444</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.486166440519284</v>
+        <v>0.6158003932831306</v>
       </c>
       <c r="G4">
-        <v>0.4038560549419046</v>
+        <v>0.3613270146234697</v>
       </c>
       <c r="H4">
-        <v>0.3582560019479644</v>
+        <v>0.01033236441412054</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01058389117909986</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3470011309367607</v>
       </c>
       <c r="K4">
-        <v>0.8755099511699314</v>
+        <v>0.3946226467265745</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08492192805729104</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7758200274232081</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2263311604798304</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.438520627708726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7912483560685075</v>
+        <v>0.8465221361172723</v>
       </c>
       <c r="C5">
-        <v>0.1236982004841281</v>
+        <v>0.1380229824823402</v>
       </c>
       <c r="D5">
-        <v>0.06340043861635536</v>
+        <v>0.1191751740036153</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4837213220663088</v>
+        <v>0.6130102936816542</v>
       </c>
       <c r="G5">
-        <v>0.403998380218539</v>
+        <v>0.3606998553114735</v>
       </c>
       <c r="H5">
-        <v>0.3605410704486758</v>
+        <v>0.01095690074410908</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01125998584350896</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3477814129039061</v>
       </c>
       <c r="K5">
-        <v>0.8395226541745444</v>
+        <v>0.3957402752925852</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08389288658216287</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7459884167519419</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2189776213203913</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.438753455210971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7855309355347515</v>
+        <v>0.8400928141296333</v>
       </c>
       <c r="C6">
-        <v>0.1229971379383841</v>
+        <v>0.1379766591850284</v>
       </c>
       <c r="D6">
-        <v>0.06315464898533918</v>
+        <v>0.1186170435684062</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4833359428523423</v>
+        <v>0.6120267764911063</v>
       </c>
       <c r="G6">
-        <v>0.4040427207355606</v>
+        <v>0.360191367528877</v>
       </c>
       <c r="H6">
-        <v>0.3609329463703332</v>
+        <v>0.01106759397533441</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01148481627888653</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3476981430832708</v>
       </c>
       <c r="K6">
-        <v>0.8335488612154052</v>
+        <v>0.3955609170076837</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08364758194656474</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7414318958617088</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2179518346034541</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.437488886675268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8252346081656867</v>
+        <v>0.881351213527239</v>
       </c>
       <c r="C7">
-        <v>0.1278623851712126</v>
+        <v>0.1398680257615723</v>
       </c>
       <c r="D7">
-        <v>0.06486007284206607</v>
+        <v>0.1227419929616076</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4861320698797584</v>
+        <v>0.6143262981220445</v>
       </c>
       <c r="G7">
-        <v>0.4038565741443421</v>
+        <v>0.3602019487927848</v>
       </c>
       <c r="H7">
-        <v>0.3582859796939175</v>
+        <v>0.01035184380547497</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01087641297706821</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3464222989382151</v>
       </c>
       <c r="K7">
-        <v>0.8750244783860808</v>
+        <v>0.3936337847290154</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08470731209169458</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7765087396684578</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2267641291944642</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.434921889920346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.001010949424057</v>
+        <v>1.063758220717943</v>
       </c>
       <c r="C8">
-        <v>0.1493209189439284</v>
+        <v>0.147771929198619</v>
       </c>
       <c r="D8">
-        <v>0.0723728735251683</v>
+        <v>0.1409313021210465</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5016011354360117</v>
+        <v>0.6268066634932339</v>
       </c>
       <c r="G8">
-        <v>0.4061787921472089</v>
+        <v>0.3620761800547925</v>
       </c>
       <c r="H8">
-        <v>0.3484738404807217</v>
+        <v>0.007573497571185528</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.008320013401616144</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.341890845385322</v>
       </c>
       <c r="K8">
-        <v>1.05843232256629</v>
+        <v>0.3866263009331306</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08946008198305222</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9301086150079811</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2652646479509144</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.42975408057201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.348966350316687</v>
+        <v>1.421175956349316</v>
       </c>
       <c r="C9">
-        <v>0.1914833210795308</v>
+        <v>0.1625473260999044</v>
       </c>
       <c r="D9">
-        <v>0.08708768607944961</v>
+        <v>0.1767250843095383</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5445429811747573</v>
+        <v>0.6574912030711104</v>
       </c>
       <c r="G9">
-        <v>0.4234092196240624</v>
+        <v>0.3706593483699976</v>
       </c>
       <c r="H9">
-        <v>0.3365637063989197</v>
+        <v>0.003620725192721941</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004458522388391728</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3360419045222116</v>
       </c>
       <c r="K9">
-        <v>1.420674941350882</v>
+        <v>0.3766601932556632</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.09873116396159176</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.22912593277573</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3403682674892821</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.436329892760909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.607856088448045</v>
+        <v>1.679146610487606</v>
       </c>
       <c r="C10">
-        <v>0.2226394092400028</v>
+        <v>0.1752419376535528</v>
       </c>
       <c r="D10">
-        <v>0.09791931750603311</v>
+        <v>0.1999599334752133</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5851578508767545</v>
+        <v>0.6733188922416886</v>
       </c>
       <c r="G10">
-        <v>0.4451979534959207</v>
+        <v>0.3734100748871754</v>
       </c>
       <c r="H10">
-        <v>0.3329091931296659</v>
+        <v>0.002019438563183762</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002860078859469262</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3302048289563615</v>
       </c>
       <c r="K10">
-        <v>1.689648658047076</v>
+        <v>0.3663417095495909</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1018198929662759</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.452416174397399</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3839205216777657</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.430363969158861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.726642373865673</v>
+        <v>1.768288566746293</v>
       </c>
       <c r="C11">
-        <v>0.2368837984631966</v>
+        <v>0.1957698044284086</v>
       </c>
       <c r="D11">
-        <v>0.1028592467345888</v>
+        <v>0.1825508083601903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6059344564816129</v>
+        <v>0.6076384605387375</v>
       </c>
       <c r="G11">
-        <v>0.4574296814694492</v>
+        <v>0.3316126772097263</v>
       </c>
       <c r="H11">
-        <v>0.3325039533777527</v>
+        <v>0.02061124242391088</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003028733369271563</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3054632127340398</v>
       </c>
       <c r="K11">
-        <v>1.812933637470735</v>
+        <v>0.3292498982447576</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.08071149461085092</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.581469016367947</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3037995621057945</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.290112739672097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.771797010828976</v>
+        <v>1.790178604110338</v>
       </c>
       <c r="C12">
-        <v>0.2422908824156309</v>
+        <v>0.2116127714406417</v>
       </c>
       <c r="D12">
-        <v>0.1047323790382606</v>
+        <v>0.1635651121981425</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6141628411317583</v>
+        <v>0.5534509206604099</v>
       </c>
       <c r="G12">
-        <v>0.4624257215662197</v>
+        <v>0.2990850186007492</v>
       </c>
       <c r="H12">
-        <v>0.332545007567262</v>
+        <v>0.05943385642598997</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002968402118841418</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2873556687445031</v>
       </c>
       <c r="K12">
-        <v>1.85977918625025</v>
+        <v>0.3037817669532501</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07212792978139504</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.642529856875058</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.234959633647378</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.183293415828757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.76206401480411</v>
+        <v>1.759685144752098</v>
       </c>
       <c r="C13">
-        <v>0.241125742993006</v>
+        <v>0.2253532918702916</v>
       </c>
       <c r="D13">
-        <v>0.1043288442621346</v>
+        <v>0.1424939652255119</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6123741660735647</v>
+        <v>0.5026467306401159</v>
       </c>
       <c r="G13">
-        <v>0.4613330265716371</v>
+        <v>0.2699334269415203</v>
       </c>
       <c r="H13">
-        <v>0.3325272845559937</v>
+        <v>0.1154691490371249</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003112805743731961</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2722899840709587</v>
       </c>
       <c r="K13">
-        <v>1.849682582630294</v>
+        <v>0.2840749322262361</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07218941331997186</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.655936716947082</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1719739473891124</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.089917360594129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.73035364782163</v>
+        <v>1.71435143734135</v>
       </c>
       <c r="C14">
-        <v>0.237328364260236</v>
+        <v>0.2343974827571884</v>
       </c>
       <c r="D14">
-        <v>0.1030132964508397</v>
+        <v>0.1270607380181588</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6066040013003544</v>
+        <v>0.4688705775187856</v>
       </c>
       <c r="G14">
-        <v>0.4578332268797283</v>
+        <v>0.2511612693452108</v>
       </c>
       <c r="H14">
-        <v>0.3325033501179462</v>
+        <v>0.1650743668949843</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003406422125176611</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2631355595588545</v>
       </c>
       <c r="K14">
-        <v>1.816784276529035</v>
+        <v>0.2730334004199264</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07733368249327199</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.64403792020704</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1322035772424215</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.030893222134452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.710953473716387</v>
+        <v>1.691819722973804</v>
       </c>
       <c r="C15">
-        <v>0.2350041456726473</v>
+        <v>0.2362040793636737</v>
       </c>
       <c r="D15">
-        <v>0.1022078308190686</v>
+        <v>0.1228210092060209</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6031175146324443</v>
+        <v>0.4607004676812707</v>
       </c>
       <c r="G15">
-        <v>0.4557378698986412</v>
+        <v>0.2468139900702013</v>
       </c>
       <c r="H15">
-        <v>0.3325144466028576</v>
+        <v>0.1777078509927321</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003656903979804227</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2613118807049091</v>
       </c>
       <c r="K15">
-        <v>1.796654811956984</v>
+        <v>0.2710742307009628</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07918142204958301</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.631254117238996</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1228213180657391</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.017825381057989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600115807290507</v>
+        <v>1.586751191078747</v>
       </c>
       <c r="C16">
-        <v>0.221710172731818</v>
+        <v>0.2277211342258596</v>
       </c>
       <c r="D16">
-        <v>0.09759679114569764</v>
+        <v>0.1176724744661044</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5838488496698133</v>
+        <v>0.4635707546991696</v>
       </c>
       <c r="G16">
-        <v>0.4444478207119431</v>
+        <v>0.2507586616307691</v>
       </c>
       <c r="H16">
-        <v>0.3329621233218347</v>
+        <v>0.1656605239364097</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004421246891564756</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2663214397199241</v>
       </c>
       <c r="K16">
-        <v>1.681612601166165</v>
+        <v>0.2786593641994326</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07764276684947902</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.532011734389471</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.118853178379446</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.036500012991581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.53239907160156</v>
+        <v>1.530312143165133</v>
       </c>
       <c r="C17">
-        <v>0.2135749248706418</v>
+        <v>0.2163682914313227</v>
       </c>
       <c r="D17">
-        <v>0.09477175070191635</v>
+        <v>0.1217697591144429</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5726379610932142</v>
+        <v>0.4834564207940488</v>
       </c>
       <c r="G17">
-        <v>0.4381369155421453</v>
+        <v>0.2636283511697997</v>
       </c>
       <c r="H17">
-        <v>0.3335681879619727</v>
+        <v>0.1282871130282075</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.004891032313212307</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2750068694821408</v>
       </c>
       <c r="K17">
-        <v>1.61129388053476</v>
+        <v>0.2901945829427568</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07289888755432727</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.462507973865598</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1358794777522121</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.0818654217328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.493544104825787</v>
+        <v>1.509876049426396</v>
       </c>
       <c r="C18">
-        <v>0.2089022781772343</v>
+        <v>0.2014674877375029</v>
       </c>
       <c r="D18">
-        <v>0.0931480003573526</v>
+        <v>0.1346998857998472</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5664043844735787</v>
+        <v>0.5225393584746243</v>
       </c>
       <c r="G18">
-        <v>0.434723445759559</v>
+        <v>0.2872332168109821</v>
       </c>
       <c r="H18">
-        <v>0.3340342318609402</v>
+        <v>0.07553582984069607</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.004788600600284632</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2885876453747969</v>
       </c>
       <c r="K18">
-        <v>1.570933977342548</v>
+        <v>0.3081065805281611</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06948436412905279</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.409915281229871</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1772448438133054</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.160293556702314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.480403829926473</v>
+        <v>1.517585361754641</v>
       </c>
       <c r="C19">
-        <v>0.2073212414095877</v>
+        <v>0.187580561393375</v>
       </c>
       <c r="D19">
-        <v>0.09259840216086701</v>
+        <v>0.1547449197892803</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5643297919772792</v>
+        <v>0.5745018340566332</v>
       </c>
       <c r="G19">
-        <v>0.4336039778218748</v>
+        <v>0.3177101046333206</v>
       </c>
       <c r="H19">
-        <v>0.3342117981315624</v>
+        <v>0.02993821140018582</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.004784707775495001</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.304933929849966</v>
       </c>
       <c r="K19">
-        <v>1.557282721867693</v>
+        <v>0.3303805264452713</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07424314525414477</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.377341372399968</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2430888870571124</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.259128416863376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.539597727741324</v>
+        <v>1.607963051801022</v>
       </c>
       <c r="C20">
-        <v>0.2144402403898056</v>
+        <v>0.1736446716384421</v>
       </c>
       <c r="D20">
-        <v>0.09507235854992757</v>
+        <v>0.1939558542579363</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5738089567524867</v>
+        <v>0.6642774579676711</v>
       </c>
       <c r="G20">
-        <v>0.4387861123857135</v>
+        <v>0.3689643758386438</v>
       </c>
       <c r="H20">
-        <v>0.3334914196063181</v>
+        <v>0.00237253223424716</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004057916219400326</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.329783527787427</v>
       </c>
       <c r="K20">
-        <v>1.618770385437472</v>
+        <v>0.3658234062071806</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1002814095590487</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.397390896073574</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3736187164390685</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.419946852392769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.739662836096983</v>
+        <v>1.810907162067707</v>
       </c>
       <c r="C21">
-        <v>0.2384433690094028</v>
+        <v>0.1809779495614663</v>
       </c>
       <c r="D21">
-        <v>0.1033996314446171</v>
+        <v>0.2169266481889878</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6082887983081022</v>
+        <v>0.6913163916523146</v>
       </c>
       <c r="G21">
-        <v>0.4588510643314549</v>
+        <v>0.3802445253061677</v>
       </c>
       <c r="H21">
-        <v>0.3325049864392895</v>
+        <v>0.001073424595479544</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002957160770892031</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.330096227217922</v>
       </c>
       <c r="K21">
-        <v>1.826442733588721</v>
+        <v>0.3649294480023819</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1079464811024842</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.563756239986049</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4260048075680487</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.444835990768041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.871438479544139</v>
+        <v>1.943333079893989</v>
       </c>
       <c r="C22">
-        <v>0.2542083031779327</v>
+        <v>0.1858396457208471</v>
       </c>
       <c r="D22">
-        <v>0.1088568536258379</v>
+        <v>0.2302052404261161</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6329416243386703</v>
+        <v>0.7070100972889932</v>
       </c>
       <c r="G22">
-        <v>0.4741031987468176</v>
+        <v>0.3869004180970776</v>
       </c>
       <c r="H22">
-        <v>0.3330012311608215</v>
+        <v>0.0005700062812277196</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002146342242997257</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3299849459117397</v>
       </c>
       <c r="K22">
-        <v>1.963116513378594</v>
+        <v>0.3639002972532523</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1114499626990408</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.672615118013113</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4533557500436558</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.458915719776229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.801004446259384</v>
+        <v>1.873958605648596</v>
       </c>
       <c r="C23">
-        <v>0.2457861823751273</v>
+        <v>0.1825960794304322</v>
       </c>
       <c r="D23">
-        <v>0.1059426285691387</v>
+        <v>0.2230191912225479</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6195796202650214</v>
+        <v>0.7002325621785417</v>
       </c>
       <c r="G23">
-        <v>0.4657564279109891</v>
+        <v>0.3845803856973049</v>
       </c>
       <c r="H23">
-        <v>0.3326271519677277</v>
+        <v>0.0008151643032912048</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002236103684917445</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3306793083095272</v>
       </c>
       <c r="K23">
-        <v>1.890074948371165</v>
+        <v>0.3655458479422684</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1098140042806612</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.613165086557871</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4381009091467405</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.45534381572854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.536342979679915</v>
+        <v>1.608968468907875</v>
       </c>
       <c r="C24">
-        <v>0.2140490176972918</v>
+        <v>0.1714327159210427</v>
       </c>
       <c r="D24">
-        <v>0.09493645253714078</v>
+        <v>0.1960562355383217</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.573278892409931</v>
+        <v>0.6730752834307552</v>
       </c>
       <c r="G24">
-        <v>0.4384919438634398</v>
+        <v>0.3747004446470399</v>
       </c>
       <c r="H24">
-        <v>0.333525761277798</v>
+        <v>0.002185878688754528</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.003523043423005134</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3328283417096856</v>
       </c>
       <c r="K24">
-        <v>1.615390050053662</v>
+        <v>0.3705934484754927</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1031843564458335</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.390386621269698</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3815840075345562</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.43848004965642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.25436188348408</v>
+        <v>1.322745180418735</v>
       </c>
       <c r="C25">
-        <v>0.1800557686218838</v>
+        <v>0.1594690860481691</v>
       </c>
       <c r="D25">
-        <v>0.08310576612606724</v>
+        <v>0.1671519451123373</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5314397589463269</v>
+        <v>0.6462190885129786</v>
       </c>
       <c r="G25">
-        <v>0.4172521287495954</v>
+        <v>0.3660219635210069</v>
       </c>
       <c r="H25">
-        <v>0.3389388708729513</v>
+        <v>0.004529584082914984</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005799174242992144</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3363673480219163</v>
       </c>
       <c r="K25">
-        <v>1.322278061082869</v>
+        <v>0.3773716126370559</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09590804860476609</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.150239896026306</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3209547739260898</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.427015886357211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.114531211924003</v>
+        <v>1.103487918170629</v>
       </c>
       <c r="C2">
-        <v>0.1492068655870327</v>
+        <v>0.1378680777854413</v>
       </c>
       <c r="D2">
-        <v>0.1457649069467806</v>
+        <v>0.1477854143583954</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.632437386943856</v>
+        <v>0.5972598612186744</v>
       </c>
       <c r="G2">
-        <v>0.3643350459575814</v>
+        <v>0.3235511344292021</v>
       </c>
       <c r="H2">
-        <v>0.006907307161846871</v>
+        <v>0.00572070223920812</v>
       </c>
       <c r="I2">
-        <v>0.007373971217107922</v>
+        <v>0.005523872798263163</v>
       </c>
       <c r="J2">
-        <v>0.3416137308983238</v>
+        <v>0.3452653863768518</v>
       </c>
       <c r="K2">
-        <v>0.3862553008092604</v>
+        <v>0.3515310880712903</v>
       </c>
       <c r="L2">
-        <v>0.09100091895347617</v>
+        <v>0.1607583133272801</v>
       </c>
       <c r="M2">
-        <v>0.9701431862221739</v>
+        <v>0.1064212861820071</v>
       </c>
       <c r="N2">
-        <v>0.274973605581863</v>
+        <v>0.08617052517858781</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9890161784098552</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2889922991986538</v>
       </c>
       <c r="Q2">
-        <v>1.434053566937294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.337482689805825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.971197331197601</v>
+        <v>0.9634773445225449</v>
       </c>
       <c r="C3">
-        <v>0.1431148384089411</v>
+        <v>0.1292918816126232</v>
       </c>
       <c r="D3">
-        <v>0.1314630879582381</v>
+        <v>0.1333092959344668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6218552942739635</v>
+        <v>0.5895453821551868</v>
       </c>
       <c r="G3">
-        <v>0.3622535008856929</v>
+        <v>0.3247541365116646</v>
       </c>
       <c r="H3">
-        <v>0.00891691556630092</v>
+        <v>0.007445619108688267</v>
       </c>
       <c r="I3">
-        <v>0.009244593723201966</v>
+        <v>0.006945038070493847</v>
       </c>
       <c r="J3">
-        <v>0.3447998876299323</v>
+        <v>0.3467506387838881</v>
       </c>
       <c r="K3">
-        <v>0.3912874713143069</v>
+        <v>0.357743654503647</v>
       </c>
       <c r="L3">
-        <v>0.08726675631759306</v>
+        <v>0.1659346199722442</v>
       </c>
       <c r="M3">
-        <v>0.8497786799864286</v>
+        <v>0.1075147080691234</v>
       </c>
       <c r="N3">
-        <v>0.2447985854796286</v>
+        <v>0.08302040125674992</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8649185079051165</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2573387519560129</v>
       </c>
       <c r="Q3">
-        <v>1.436046023345952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.345347665058981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8828960943551181</v>
+        <v>0.8771238752198087</v>
       </c>
       <c r="C4">
-        <v>0.1393909214456315</v>
+        <v>0.1241018434154455</v>
       </c>
       <c r="D4">
-        <v>0.1227113453900444</v>
+        <v>0.1244561805690836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6158003932831306</v>
+        <v>0.5851567023142366</v>
       </c>
       <c r="G4">
-        <v>0.3613270146234697</v>
+        <v>0.3258563082297314</v>
       </c>
       <c r="H4">
-        <v>0.01033236441412054</v>
+        <v>0.008664590500034014</v>
       </c>
       <c r="I4">
-        <v>0.01058389117909986</v>
+        <v>0.007981048659492451</v>
       </c>
       <c r="J4">
-        <v>0.3470011309367607</v>
+        <v>0.3477574642184322</v>
       </c>
       <c r="K4">
-        <v>0.3946226467265745</v>
+        <v>0.3617397047820781</v>
       </c>
       <c r="L4">
-        <v>0.08492192805729104</v>
+        <v>0.1692497598614864</v>
       </c>
       <c r="M4">
-        <v>0.7758200274232081</v>
+        <v>0.1086917051691483</v>
       </c>
       <c r="N4">
-        <v>0.2263311604798304</v>
+        <v>0.08102980258323811</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7887143289292169</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2379989508822575</v>
       </c>
       <c r="Q4">
-        <v>1.438520627708726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.351175957914791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8465221361172723</v>
+        <v>0.8415248744744588</v>
       </c>
       <c r="C5">
-        <v>0.1380229824823402</v>
+        <v>0.1221724002851943</v>
       </c>
       <c r="D5">
-        <v>0.1191751740036153</v>
+        <v>0.120880104934983</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6130102936816542</v>
+        <v>0.5830380513419655</v>
       </c>
       <c r="G5">
-        <v>0.3606998553114735</v>
+        <v>0.3260790069048483</v>
       </c>
       <c r="H5">
-        <v>0.01095690074410908</v>
+        <v>0.009203425386143181</v>
       </c>
       <c r="I5">
-        <v>0.01125998584350896</v>
+        <v>0.00853883665275923</v>
       </c>
       <c r="J5">
-        <v>0.3477814129039061</v>
+        <v>0.3480144657453295</v>
       </c>
       <c r="K5">
-        <v>0.3957402752925852</v>
+        <v>0.3631319181613506</v>
       </c>
       <c r="L5">
-        <v>0.08389288658216287</v>
+        <v>0.1704866052390628</v>
       </c>
       <c r="M5">
-        <v>0.7459884167519419</v>
+        <v>0.1092353432893933</v>
       </c>
       <c r="N5">
-        <v>0.2189776213203913</v>
+        <v>0.08014703183136263</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7579792204659839</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2302991665591634</v>
       </c>
       <c r="Q5">
-        <v>1.438753455210971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.352763097612439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8400928141296333</v>
+        <v>0.8352275736852448</v>
       </c>
       <c r="C6">
-        <v>0.1379766591850284</v>
+        <v>0.1220600926389395</v>
       </c>
       <c r="D6">
-        <v>0.1186170435684062</v>
+        <v>0.1203153481478694</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6120267764911063</v>
+        <v>0.5821841476972196</v>
       </c>
       <c r="G6">
-        <v>0.360191367528877</v>
+        <v>0.3257372234542757</v>
       </c>
       <c r="H6">
-        <v>0.01106759397533441</v>
+        <v>0.009299128663811856</v>
       </c>
       <c r="I6">
-        <v>0.01148481627888653</v>
+        <v>0.008759720949866434</v>
       </c>
       <c r="J6">
-        <v>0.3476981430832708</v>
+        <v>0.3478426421804244</v>
       </c>
       <c r="K6">
-        <v>0.3955609170076837</v>
+        <v>0.3630232888968532</v>
       </c>
       <c r="L6">
-        <v>0.08364758194656474</v>
+        <v>0.170513565930527</v>
       </c>
       <c r="M6">
-        <v>0.7414318958617088</v>
+        <v>0.1092561417050018</v>
       </c>
       <c r="N6">
-        <v>0.2179518346034541</v>
+        <v>0.07992964346546927</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7532725126367978</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2292167576639343</v>
       </c>
       <c r="Q6">
-        <v>1.437488886675268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.351781353592941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.881351213527239</v>
+        <v>0.8757411052598059</v>
       </c>
       <c r="C7">
-        <v>0.1398680257615723</v>
+        <v>0.1245323861007748</v>
       </c>
       <c r="D7">
-        <v>0.1227419929616076</v>
+        <v>0.1246671820814669</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6143262981220445</v>
+        <v>0.5830091601290945</v>
       </c>
       <c r="G7">
-        <v>0.3602019487927848</v>
+        <v>0.3267304789914931</v>
       </c>
       <c r="H7">
-        <v>0.01035184380547497</v>
+        <v>0.008686983654896605</v>
       </c>
       <c r="I7">
-        <v>0.01087641297706821</v>
+        <v>0.008319509599107988</v>
       </c>
       <c r="J7">
-        <v>0.3464222989382151</v>
+        <v>0.3441471044814719</v>
       </c>
       <c r="K7">
-        <v>0.3936337847290154</v>
+        <v>0.3604732500401582</v>
       </c>
       <c r="L7">
-        <v>0.08470731209169458</v>
+        <v>0.168607918132853</v>
       </c>
       <c r="M7">
-        <v>0.7765087396684578</v>
+        <v>0.1083901467825861</v>
       </c>
       <c r="N7">
-        <v>0.2267641291944642</v>
+        <v>0.08080755947931806</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7891926817258934</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.238440467128072</v>
       </c>
       <c r="Q7">
-        <v>1.434921889920346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.345777910745966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063758220717943</v>
+        <v>1.054361901977273</v>
       </c>
       <c r="C8">
-        <v>0.147771929198619</v>
+        <v>0.1352953468786993</v>
       </c>
       <c r="D8">
-        <v>0.1409313021210465</v>
+        <v>0.1434979333557465</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6268066634932339</v>
+        <v>0.590293148944653</v>
       </c>
       <c r="G8">
-        <v>0.3620761800547925</v>
+        <v>0.3289380333227641</v>
       </c>
       <c r="H8">
-        <v>0.007573497571185528</v>
+        <v>0.006305631267712414</v>
       </c>
       <c r="I8">
-        <v>0.008320013401616144</v>
+        <v>0.006388695720239923</v>
       </c>
       <c r="J8">
-        <v>0.341890845385322</v>
+        <v>0.3352461695955569</v>
       </c>
       <c r="K8">
-        <v>0.3866263009331306</v>
+        <v>0.3512850876912132</v>
       </c>
       <c r="L8">
-        <v>0.08946008198305222</v>
+        <v>0.1614240254008958</v>
       </c>
       <c r="M8">
-        <v>0.9301086150079811</v>
+        <v>0.1060153540348168</v>
       </c>
       <c r="N8">
-        <v>0.2652646479509144</v>
+        <v>0.08478454676882663</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9470287279969227</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2788102072746597</v>
       </c>
       <c r="Q8">
-        <v>1.42975408057201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.328998893442829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.421175956349316</v>
+        <v>1.403050148923398</v>
       </c>
       <c r="C9">
-        <v>0.1625473260999044</v>
+        <v>0.1564136340463449</v>
       </c>
       <c r="D9">
-        <v>0.1767250843095383</v>
+        <v>0.1799320624031822</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6574912030711104</v>
+        <v>0.6125832645504801</v>
       </c>
       <c r="G9">
-        <v>0.3706593483699976</v>
+        <v>0.3310913232930517</v>
       </c>
       <c r="H9">
-        <v>0.003620725192721941</v>
+        <v>0.00293309821574228</v>
       </c>
       <c r="I9">
-        <v>0.004458522388391728</v>
+        <v>0.003435511096646415</v>
       </c>
       <c r="J9">
-        <v>0.3360419045222116</v>
+        <v>0.3301946098492223</v>
       </c>
       <c r="K9">
-        <v>0.3766601932556632</v>
+        <v>0.3376600071438425</v>
       </c>
       <c r="L9">
-        <v>0.09873116396159176</v>
+        <v>0.1498239760921898</v>
       </c>
       <c r="M9">
-        <v>1.22912593277573</v>
+        <v>0.1061769875204082</v>
       </c>
       <c r="N9">
-        <v>0.3403682674892821</v>
+        <v>0.0925491559713123</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.25540558660299</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3578073682424474</v>
       </c>
       <c r="Q9">
-        <v>1.436329892760909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.317615381295568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.679146610487606</v>
+        <v>1.655390118740968</v>
       </c>
       <c r="C10">
-        <v>0.1752419376535528</v>
+        <v>0.1734899645678354</v>
       </c>
       <c r="D10">
-        <v>0.1999599334752133</v>
+        <v>0.2046820702158385</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6733188922416886</v>
+        <v>0.6186319400443807</v>
       </c>
       <c r="G10">
-        <v>0.3734100748871754</v>
+        <v>0.3414730036591394</v>
       </c>
       <c r="H10">
-        <v>0.002019438563183762</v>
+        <v>0.001631690186722601</v>
       </c>
       <c r="I10">
-        <v>0.002860078859469262</v>
+        <v>0.002373237489565305</v>
       </c>
       <c r="J10">
-        <v>0.3302048289563615</v>
+        <v>0.3091813431772863</v>
       </c>
       <c r="K10">
-        <v>0.3663417095495909</v>
+        <v>0.3233052159068492</v>
       </c>
       <c r="L10">
-        <v>0.1018198929662759</v>
+        <v>0.1401199956450956</v>
       </c>
       <c r="M10">
-        <v>1.452416174397399</v>
+        <v>0.1066209046778219</v>
       </c>
       <c r="N10">
-        <v>0.3839205216777657</v>
+        <v>0.09474471506057469</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.484126853549952</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4039427708321313</v>
       </c>
       <c r="Q10">
-        <v>1.430363969158861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.288748377007877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.768288566746293</v>
+        <v>1.747560609867463</v>
       </c>
       <c r="C11">
-        <v>0.1957698044284086</v>
+        <v>0.1949286048204044</v>
       </c>
       <c r="D11">
-        <v>0.1825508083601903</v>
+        <v>0.1890713736944463</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6076384605387375</v>
+        <v>0.5509000121129475</v>
       </c>
       <c r="G11">
-        <v>0.3316126772097263</v>
+        <v>0.3271466261570808</v>
       </c>
       <c r="H11">
-        <v>0.02061124242391088</v>
+        <v>0.02026122925044405</v>
       </c>
       <c r="I11">
-        <v>0.003028733369271563</v>
+        <v>0.00277971282172107</v>
       </c>
       <c r="J11">
-        <v>0.3054632127340398</v>
+        <v>0.2643365807475462</v>
       </c>
       <c r="K11">
-        <v>0.3292498982447576</v>
+        <v>0.2887401357547219</v>
       </c>
       <c r="L11">
-        <v>0.08071149461085092</v>
+        <v>0.1266064957184785</v>
       </c>
       <c r="M11">
-        <v>1.581469016367947</v>
+        <v>0.09526778265488467</v>
       </c>
       <c r="N11">
-        <v>0.3037995621057945</v>
+        <v>0.07579858531250494</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.60964921458654</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3208090193707847</v>
       </c>
       <c r="Q11">
-        <v>1.290112739672097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.14365887790926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.790178604110338</v>
+        <v>1.772812351805868</v>
       </c>
       <c r="C12">
-        <v>0.2116127714406417</v>
+        <v>0.2102516902242826</v>
       </c>
       <c r="D12">
-        <v>0.1635651121981425</v>
+        <v>0.1704845086704978</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5534509206604099</v>
+        <v>0.499771125761022</v>
       </c>
       <c r="G12">
-        <v>0.2990850186007492</v>
+        <v>0.3070414409488365</v>
       </c>
       <c r="H12">
-        <v>0.05943385642598997</v>
+        <v>0.0590800057980303</v>
       </c>
       <c r="I12">
-        <v>0.002968402118841418</v>
+        <v>0.002743237985042057</v>
       </c>
       <c r="J12">
-        <v>0.2873556687445031</v>
+        <v>0.2449755054146614</v>
       </c>
       <c r="K12">
-        <v>0.3037817669532501</v>
+        <v>0.2672774503323652</v>
       </c>
       <c r="L12">
-        <v>0.07212792978139504</v>
+        <v>0.1192098986620982</v>
       </c>
       <c r="M12">
-        <v>1.642529856875058</v>
+        <v>0.08699315422385645</v>
       </c>
       <c r="N12">
-        <v>0.234959633647378</v>
+        <v>0.06899553134909975</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.667051630479591</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2490645943488232</v>
       </c>
       <c r="Q12">
-        <v>1.183293415828757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.044834464773359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.759685144752098</v>
+        <v>1.745750561523153</v>
       </c>
       <c r="C13">
-        <v>0.2253532918702916</v>
+        <v>0.2229793895359222</v>
       </c>
       <c r="D13">
-        <v>0.1424939652255119</v>
+        <v>0.1484739049806052</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5026467306401159</v>
+        <v>0.456936674458241</v>
       </c>
       <c r="G13">
-        <v>0.2699334269415203</v>
+        <v>0.2757692350099532</v>
       </c>
       <c r="H13">
-        <v>0.1154691490371249</v>
+        <v>0.1150710424837484</v>
       </c>
       <c r="I13">
-        <v>0.003112805743731961</v>
+        <v>0.002823879858834921</v>
       </c>
       <c r="J13">
-        <v>0.2722899840709587</v>
+        <v>0.2398391444751091</v>
       </c>
       <c r="K13">
-        <v>0.2840749322262361</v>
+        <v>0.2530709391063617</v>
       </c>
       <c r="L13">
-        <v>0.07218941331997186</v>
+        <v>0.114888725808262</v>
       </c>
       <c r="M13">
-        <v>1.655936716947082</v>
+        <v>0.08046654961878907</v>
       </c>
       <c r="N13">
-        <v>0.1719739473891124</v>
+        <v>0.07056266817525447</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.677089872313502</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1831685587845442</v>
       </c>
       <c r="Q13">
-        <v>1.089917360594129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9717408293401064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.71435143734135</v>
+        <v>1.702850003577282</v>
       </c>
       <c r="C14">
-        <v>0.2343974827571884</v>
+        <v>0.2310966051207686</v>
       </c>
       <c r="D14">
-        <v>0.1270607380181588</v>
+        <v>0.1319075563907575</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4688705775187856</v>
+        <v>0.4303444645709007</v>
       </c>
       <c r="G14">
-        <v>0.2511612693452108</v>
+        <v>0.2503735376238865</v>
       </c>
       <c r="H14">
-        <v>0.1650743668949843</v>
+        <v>0.1646249848420211</v>
       </c>
       <c r="I14">
-        <v>0.003406422125176611</v>
+        <v>0.003045091940554912</v>
       </c>
       <c r="J14">
-        <v>0.2631355595588545</v>
+        <v>0.2407657805154138</v>
       </c>
       <c r="K14">
-        <v>0.2730334004199264</v>
+        <v>0.2461384669862525</v>
       </c>
       <c r="L14">
-        <v>0.07733368249327199</v>
+        <v>0.1129731806058922</v>
       </c>
       <c r="M14">
-        <v>1.64403792020704</v>
+        <v>0.0767751936663128</v>
       </c>
       <c r="N14">
-        <v>0.1322035772424215</v>
+        <v>0.0765321389129916</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.662946922355729</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1414637878688936</v>
       </c>
       <c r="Q14">
-        <v>1.030893222134452</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9308281596266852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.691819722973804</v>
+        <v>1.680937980316571</v>
       </c>
       <c r="C15">
-        <v>0.2362040793636737</v>
+        <v>0.2326627388441835</v>
       </c>
       <c r="D15">
-        <v>0.1228210092060209</v>
+        <v>0.1271945508601107</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4607004676812707</v>
+        <v>0.4246751596623497</v>
       </c>
       <c r="G15">
-        <v>0.2468139900702013</v>
+        <v>0.2424507064604171</v>
       </c>
       <c r="H15">
-        <v>0.1777078509927321</v>
+        <v>0.1772326006512515</v>
       </c>
       <c r="I15">
-        <v>0.003656903979804227</v>
+        <v>0.0032782842638861</v>
       </c>
       <c r="J15">
-        <v>0.2613118807049091</v>
+        <v>0.2429007486767247</v>
       </c>
       <c r="K15">
-        <v>0.2710742307009628</v>
+        <v>0.2453693677775082</v>
       </c>
       <c r="L15">
-        <v>0.07918142204958301</v>
+        <v>0.1128390699695192</v>
       </c>
       <c r="M15">
-        <v>1.631254117238996</v>
+        <v>0.07610988593062551</v>
       </c>
       <c r="N15">
-        <v>0.1228213180657391</v>
+        <v>0.07853959744715411</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.649673792542529</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1316004678216132</v>
       </c>
       <c r="Q15">
-        <v>1.017825381057989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9240185372509728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.586751191078747</v>
+        <v>1.576238356541808</v>
       </c>
       <c r="C16">
-        <v>0.2277211342258596</v>
+        <v>0.2238829385091918</v>
       </c>
       <c r="D16">
-        <v>0.1176724744661044</v>
+        <v>0.12034716600661</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4635707546991696</v>
+        <v>0.4341520926872562</v>
       </c>
       <c r="G16">
-        <v>0.2507586616307691</v>
+        <v>0.2303905057132241</v>
       </c>
       <c r="H16">
-        <v>0.1656605239364097</v>
+        <v>0.1650433162580498</v>
       </c>
       <c r="I16">
-        <v>0.004421246891564756</v>
+        <v>0.003852354763419719</v>
       </c>
       <c r="J16">
-        <v>0.2663214397199241</v>
+        <v>0.2630975295002642</v>
       </c>
       <c r="K16">
-        <v>0.2786593641994326</v>
+        <v>0.2547013013149027</v>
       </c>
       <c r="L16">
-        <v>0.07764276684947902</v>
+        <v>0.1163710162336562</v>
       </c>
       <c r="M16">
-        <v>1.532011734389471</v>
+        <v>0.07851451257032238</v>
       </c>
       <c r="N16">
-        <v>0.118853178379446</v>
+        <v>0.07686253481107386</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.550773776450256</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1273003907001495</v>
       </c>
       <c r="Q16">
-        <v>1.036500012991581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9587932479899308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.530312143165133</v>
+        <v>1.519026030711814</v>
       </c>
       <c r="C17">
-        <v>0.2163682914313227</v>
+        <v>0.2125329972236329</v>
       </c>
       <c r="D17">
-        <v>0.1217697591144429</v>
+        <v>0.1238696980435776</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4834564207940488</v>
+        <v>0.4550531557883915</v>
       </c>
       <c r="G17">
-        <v>0.2636283511697997</v>
+        <v>0.2358333703167119</v>
       </c>
       <c r="H17">
-        <v>0.1282871130282075</v>
+        <v>0.1275868264760618</v>
       </c>
       <c r="I17">
-        <v>0.004891032313212307</v>
+        <v>0.004215951246324678</v>
       </c>
       <c r="J17">
-        <v>0.2750068694821408</v>
+        <v>0.2786083521346434</v>
       </c>
       <c r="K17">
-        <v>0.2901945829427568</v>
+        <v>0.2655566167303469</v>
       </c>
       <c r="L17">
-        <v>0.07289888755432727</v>
+        <v>0.1204641448043047</v>
       </c>
       <c r="M17">
-        <v>1.462507973865598</v>
+        <v>0.08206388636802231</v>
       </c>
       <c r="N17">
-        <v>0.1358794777522121</v>
+        <v>0.07167551884991852</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.482370166374523</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1450166698177071</v>
       </c>
       <c r="Q17">
-        <v>1.0818654217328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.006392660710915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.509876049426396</v>
+        <v>1.496457524275485</v>
       </c>
       <c r="C18">
-        <v>0.2014674877375029</v>
+        <v>0.1979521256705254</v>
       </c>
       <c r="D18">
-        <v>0.1346998857998472</v>
+        <v>0.1367627718306181</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5225393584746243</v>
+        <v>0.4915111842849242</v>
       </c>
       <c r="G18">
-        <v>0.2872332168109821</v>
+        <v>0.2539619654357708</v>
       </c>
       <c r="H18">
-        <v>0.07553582984069607</v>
+        <v>0.07481440372201575</v>
       </c>
       <c r="I18">
-        <v>0.004788600600284632</v>
+        <v>0.004030350200171284</v>
       </c>
       <c r="J18">
-        <v>0.2885876453747969</v>
+        <v>0.2941871462094525</v>
       </c>
       <c r="K18">
-        <v>0.3081065805281611</v>
+        <v>0.2808210801028519</v>
       </c>
       <c r="L18">
-        <v>0.06948436412905279</v>
+        <v>0.1262491113228457</v>
       </c>
       <c r="M18">
-        <v>1.409915281229871</v>
+        <v>0.08752713722878624</v>
       </c>
       <c r="N18">
-        <v>0.1772448438133054</v>
+        <v>0.06736206246865972</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.432058731037472</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1881460704972042</v>
       </c>
       <c r="Q18">
-        <v>1.160293556702314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.078026779448805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.517585361754641</v>
+        <v>1.50102144750258</v>
       </c>
       <c r="C19">
-        <v>0.187580561393375</v>
+        <v>0.1845588573317229</v>
       </c>
       <c r="D19">
-        <v>0.1547449197892803</v>
+        <v>0.1570975766504006</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5745018340566332</v>
+        <v>0.5382986315593001</v>
       </c>
       <c r="G19">
-        <v>0.3177101046333206</v>
+        <v>0.2794088848929377</v>
       </c>
       <c r="H19">
-        <v>0.02993821140018582</v>
+        <v>0.02926369180888599</v>
       </c>
       <c r="I19">
-        <v>0.004784707775495001</v>
+        <v>0.004083728309073109</v>
       </c>
       <c r="J19">
-        <v>0.304933929849966</v>
+        <v>0.3095326010576258</v>
       </c>
       <c r="K19">
-        <v>0.3303805264452713</v>
+        <v>0.2989620897626395</v>
       </c>
       <c r="L19">
-        <v>0.07424314525414477</v>
+        <v>0.1330886178351331</v>
       </c>
       <c r="M19">
-        <v>1.377341372399968</v>
+        <v>0.09429252406442323</v>
       </c>
       <c r="N19">
-        <v>0.2430888870571124</v>
+        <v>0.07066787412769582</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.402640836835872</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2567591810220762</v>
       </c>
       <c r="Q19">
-        <v>1.259128416863376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.163851480226853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.607963051801022</v>
+        <v>1.585298634743879</v>
       </c>
       <c r="C20">
-        <v>0.1736446716384421</v>
+        <v>0.1715076261257877</v>
       </c>
       <c r="D20">
-        <v>0.1939558542579363</v>
+        <v>0.1976050765769912</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6642774579676711</v>
+        <v>0.615053247244937</v>
       </c>
       <c r="G20">
-        <v>0.3689643758386438</v>
+        <v>0.328136164589182</v>
       </c>
       <c r="H20">
-        <v>0.00237253223424716</v>
+        <v>0.001906162005562706</v>
       </c>
       <c r="I20">
-        <v>0.004057916219400326</v>
+        <v>0.003589254766558803</v>
       </c>
       <c r="J20">
-        <v>0.329783527787427</v>
+        <v>0.3224388022701135</v>
       </c>
       <c r="K20">
-        <v>0.3658234062071806</v>
+        <v>0.3254152739398037</v>
       </c>
       <c r="L20">
-        <v>0.1002814095590487</v>
+        <v>0.142004506675617</v>
       </c>
       <c r="M20">
-        <v>1.397390896073574</v>
+        <v>0.1057562113980364</v>
       </c>
       <c r="N20">
-        <v>0.3736187164390685</v>
+        <v>0.09355933253755566</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.42838298644071</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3929039794689402</v>
       </c>
       <c r="Q20">
-        <v>1.419946852392769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.292195073650092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.810907162067707</v>
+        <v>1.785694489982177</v>
       </c>
       <c r="C21">
-        <v>0.1809779495614663</v>
+        <v>0.1798909445480632</v>
       </c>
       <c r="D21">
-        <v>0.2169266481889878</v>
+        <v>0.2255005512592163</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6913163916523146</v>
+        <v>0.6193010738135385</v>
       </c>
       <c r="G21">
-        <v>0.3802445253061677</v>
+        <v>0.3843793170393113</v>
       </c>
       <c r="H21">
-        <v>0.001073424595479544</v>
+        <v>0.0008345706862088464</v>
       </c>
       <c r="I21">
-        <v>0.002957160770892031</v>
+        <v>0.002853452800030354</v>
       </c>
       <c r="J21">
-        <v>0.330096227217922</v>
+        <v>0.2681841197394661</v>
       </c>
       <c r="K21">
-        <v>0.3649294480023819</v>
+        <v>0.313996781763823</v>
       </c>
       <c r="L21">
-        <v>0.1079464811024842</v>
+        <v>0.1348121062390604</v>
       </c>
       <c r="M21">
-        <v>1.563756239986049</v>
+        <v>0.1063071020047985</v>
       </c>
       <c r="N21">
-        <v>0.4260048075680487</v>
+        <v>0.09972009257210246</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.595782445919269</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.448369375593245</v>
       </c>
       <c r="Q21">
-        <v>1.444835990768041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.259382070357603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.943333079893989</v>
+        <v>1.916847381410889</v>
       </c>
       <c r="C22">
-        <v>0.1858396457208471</v>
+        <v>0.1852205449220179</v>
       </c>
       <c r="D22">
-        <v>0.2302052404261161</v>
+        <v>0.2423863411160312</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7070100972889932</v>
+        <v>0.6191808780003285</v>
       </c>
       <c r="G22">
-        <v>0.3869004180970776</v>
+        <v>0.4279761366828865</v>
       </c>
       <c r="H22">
-        <v>0.0005700062812277196</v>
+        <v>0.0004338266732377694</v>
       </c>
       <c r="I22">
-        <v>0.002146342242997257</v>
+        <v>0.002161248287249506</v>
       </c>
       <c r="J22">
-        <v>0.3299849459117397</v>
+        <v>0.2399053034751049</v>
       </c>
       <c r="K22">
-        <v>0.3639002972532523</v>
+        <v>0.3058061126366098</v>
       </c>
       <c r="L22">
-        <v>0.1114499626990408</v>
+        <v>0.1300891688068901</v>
       </c>
       <c r="M22">
-        <v>1.672615118013113</v>
+        <v>0.1065764418049504</v>
       </c>
       <c r="N22">
-        <v>0.4533557500436558</v>
+        <v>0.1023712451454521</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.70475521924763</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4775267892909909</v>
       </c>
       <c r="Q22">
-        <v>1.458915719776229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.23345922285317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.873958605648596</v>
+        <v>1.847747039603348</v>
       </c>
       <c r="C23">
-        <v>0.1825960794304322</v>
+        <v>0.1819043756061518</v>
       </c>
       <c r="D23">
-        <v>0.2230191912225479</v>
+        <v>0.2327417078397218</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7002325621785417</v>
+        <v>0.6226080617131373</v>
       </c>
       <c r="G23">
-        <v>0.3845803856973049</v>
+        <v>0.3995190425862774</v>
       </c>
       <c r="H23">
-        <v>0.0008151643032912048</v>
+        <v>0.0006261469513964002</v>
       </c>
       <c r="I23">
-        <v>0.002236103684917445</v>
+        <v>0.002128178301106232</v>
       </c>
       <c r="J23">
-        <v>0.3306793083095272</v>
+        <v>0.2585592699586172</v>
       </c>
       <c r="K23">
-        <v>0.3655458479422684</v>
+        <v>0.3119274976347626</v>
       </c>
       <c r="L23">
-        <v>0.1098140042806612</v>
+        <v>0.1331492168913773</v>
       </c>
       <c r="M23">
-        <v>1.613165086557871</v>
+        <v>0.1071717701147392</v>
       </c>
       <c r="N23">
-        <v>0.4381009091467405</v>
+        <v>0.1012090102333048</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.645780798666408</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.461260398029367</v>
       </c>
       <c r="Q23">
-        <v>1.45534381572854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.255717447378302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.608968468907875</v>
+        <v>1.585958427572933</v>
       </c>
       <c r="C24">
-        <v>0.1714327159210427</v>
+        <v>0.1690159093234342</v>
       </c>
       <c r="D24">
-        <v>0.1960562355383217</v>
+        <v>0.1997149469357282</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6730752834307552</v>
+        <v>0.6231548100904547</v>
       </c>
       <c r="G24">
-        <v>0.3747004446470399</v>
+        <v>0.3328864959978119</v>
       </c>
       <c r="H24">
-        <v>0.002185878688754528</v>
+        <v>0.001727399997368817</v>
       </c>
       <c r="I24">
-        <v>0.003523043423005134</v>
+        <v>0.002958382282518102</v>
       </c>
       <c r="J24">
-        <v>0.3328283417096856</v>
+        <v>0.3255723788910316</v>
       </c>
       <c r="K24">
-        <v>0.3705934484754927</v>
+        <v>0.3294655563141724</v>
       </c>
       <c r="L24">
-        <v>0.1031843564458335</v>
+        <v>0.1435286201693877</v>
       </c>
       <c r="M24">
-        <v>1.390386621269698</v>
+        <v>0.1072631728609323</v>
       </c>
       <c r="N24">
-        <v>0.3815840075345562</v>
+        <v>0.0962027051040657</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.42166465909628</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4012190884837992</v>
       </c>
       <c r="Q24">
-        <v>1.43848004965642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.308849836957492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.322745180418735</v>
+        <v>1.306903433320485</v>
       </c>
       <c r="C25">
-        <v>0.1594690860481691</v>
+        <v>0.1519220260937999</v>
       </c>
       <c r="D25">
-        <v>0.1671519451123373</v>
+        <v>0.169917635372542</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6462190885129786</v>
+        <v>0.604838531967566</v>
       </c>
       <c r="G25">
-        <v>0.3660219635210069</v>
+        <v>0.3255326780418315</v>
       </c>
       <c r="H25">
-        <v>0.004529584082914984</v>
+        <v>0.003700139914959211</v>
       </c>
       <c r="I25">
-        <v>0.005799174242992144</v>
+        <v>0.004632854544240672</v>
       </c>
       <c r="J25">
-        <v>0.3363673480219163</v>
+        <v>0.3345739842809934</v>
       </c>
       <c r="K25">
-        <v>0.3773716126370559</v>
+        <v>0.3400861077592019</v>
       </c>
       <c r="L25">
-        <v>0.09590804860476609</v>
+        <v>0.1523994501007948</v>
       </c>
       <c r="M25">
-        <v>1.150239896026306</v>
+        <v>0.1053208204101104</v>
       </c>
       <c r="N25">
-        <v>0.3209547739260898</v>
+        <v>0.09018901207292629</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.17424162814342</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3373007208503083</v>
       </c>
       <c r="Q25">
-        <v>1.427015886357211</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.316599936799207</v>
       </c>
     </row>
   </sheetData>
